--- a/xlsx/form_p_parcels.xlsx
+++ b/xlsx/form_p_parcels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811FE230-5FD7-402B-8B2A-A6186E900850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22A602-2416-4EE6-9160-7F3940B043C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -834,13 +834,7 @@
     <t>"jHcAAHvZzSjuAaQfT3pm"</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/sandbox/submission</t>
-  </si>
-  <si>
     <t>selected_user_guid</t>
-  </si>
-  <si>
-    <t>if (${odk-tiers}='', '', if ((string-length(${odk-tiers})&gt;0 and ${odk-tiers}!= 'TIER_5'), 'FOI', 'NÃO FOI'))</t>
   </si>
   <si>
     <t>parties_number</t>
@@ -987,14 +981,27 @@
 &lt;h1&gt;&lt;span style="color:#57b055"&gt;${party_name}&lt;/span&gt; 
 &lt;h1&gt;&lt;span style="color:#FF6347"&gt;${verified}&lt;/span&gt; verificada</t>
   </si>
+  <si>
+    <t>http://cavateco.terrafirma.co.mz:8080/cesc_niassa/submission</t>
+  </si>
+  <si>
+    <t>if (${odk-confidences}='', '', if ((${odk-confidences}&gt;=55), 'FOI', 'NÃO FOI'))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1397,563 +1404,563 @@
   </borders>
   <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="244"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="244" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="244"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="244" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="244" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="0" xfId="244" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="258" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="258" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="259">
@@ -2554,11 +2561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2776,7 @@
         <v>103</v>
       </c>
       <c r="C13" s="129" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="101"/>
     </row>
@@ -3254,7 +3261,7 @@
         <v>107</v>
       </c>
       <c r="J38" s="132" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K38" s="27" t="s">
         <v>21</v>
@@ -3367,17 +3374,17 @@
         <v>26</v>
       </c>
       <c r="B45" s="110" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" s="120" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D45" s="86"/>
       <c r="I45" s="109" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J45" s="131" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K45" s="42" t="s">
         <v>21</v>
@@ -3388,14 +3395,14 @@
         <v>43</v>
       </c>
       <c r="B46" s="53" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D46" s="1"/>
       <c r="F46" s="109" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3406,7 +3413,7 @@
         <v>108</v>
       </c>
       <c r="C47" s="111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="86" t="s">
@@ -3426,7 +3433,7 @@
         <v>63</v>
       </c>
       <c r="C48" s="112" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D48" s="43"/>
       <c r="J48" s="131"/>
@@ -3442,11 +3449,11 @@
         <v>153</v>
       </c>
       <c r="C49" s="91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D49" s="91"/>
       <c r="G49" s="117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J49" s="131"/>
       <c r="K49" s="55" t="s">
@@ -3464,7 +3471,7 @@
         <v>66</v>
       </c>
       <c r="O50" s="109" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
@@ -3472,13 +3479,13 @@
         <v>35</v>
       </c>
       <c r="B51" s="108" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C51" s="93"/>
       <c r="D51" s="93"/>
       <c r="H51" s="55"/>
       <c r="O51" s="109" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.25">
@@ -3486,10 +3493,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="O52" s="131" t="s">
         <v>297</v>
-      </c>
-      <c r="O52" s="131" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
@@ -3497,13 +3504,13 @@
         <v>35</v>
       </c>
       <c r="B53" s="130" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C53" s="93"/>
       <c r="D53" s="93"/>
       <c r="H53" s="55"/>
       <c r="O53" s="131" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3517,7 +3524,7 @@
         <v>245</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E54" s="124"/>
       <c r="M54" s="126" t="s">
@@ -3629,7 +3636,7 @@
       <c r="D63" s="55"/>
       <c r="H63" s="55"/>
       <c r="O63" s="126" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="86" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,7 +3647,7 @@
         <v>263</v>
       </c>
       <c r="C64" s="135" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D64" s="43"/>
       <c r="H64" s="55"/>
@@ -3651,17 +3658,17 @@
         <v>224</v>
       </c>
       <c r="B65" s="128" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C65" s="134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D65" s="88"/>
       <c r="G65" s="134" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H65" s="55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I65" s="55"/>
       <c r="J65" s="131"/>
@@ -3697,7 +3704,7 @@
         <v>35</v>
       </c>
       <c r="B67" s="113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C67" s="58"/>
       <c r="D67" s="58"/>
@@ -3705,7 +3712,7 @@
       <c r="H67" s="55"/>
       <c r="K67" s="63"/>
       <c r="O67" s="112" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -3718,10 +3725,10 @@
         <v>35</v>
       </c>
       <c r="B69" s="115" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O69" s="112" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -3729,19 +3736,19 @@
         <v>224</v>
       </c>
       <c r="B70" s="130" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="133" t="s">
+        <v>294</v>
+      </c>
+      <c r="H70" s="114" t="s">
+        <v>280</v>
+      </c>
+      <c r="I70" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="J70" s="131" t="s">
         <v>288</v>
-      </c>
-      <c r="C70" s="133" t="s">
-        <v>296</v>
-      </c>
-      <c r="H70" s="114" t="s">
-        <v>282</v>
-      </c>
-      <c r="I70" s="114" t="s">
-        <v>281</v>
-      </c>
-      <c r="J70" s="131" t="s">
-        <v>290</v>
       </c>
       <c r="K70" s="131" t="s">
         <v>21</v>
@@ -3853,7 +3860,7 @@
         <v>46</v>
       </c>
       <c r="C77" s="134" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D77" s="30"/>
       <c r="J77" s="25"/>
@@ -9594,8 +9601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9636,7 +9643,7 @@
         <v>2021052713</v>
       </c>
       <c r="D2" s="98" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="E2" s="66" t="s">
         <v>170</v>

--- a/xlsx/form_p_parcels.xlsx
+++ b/xlsx/form_p_parcels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\odk_forms_cesc_niassa\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B22A602-2416-4EE6-9160-7F3940B043C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C64C6-367C-47A0-865E-C40F5ADC313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1782,9 +1782,6 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1806,7 +1803,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1855,14 +1851,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
@@ -1890,13 +1880,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1914,9 +1898,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1962,6 +1943,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2562,10 +2569,10 @@
   <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O63" sqref="O63"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,85 +2654,85 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="86"/>
-    </row>
-    <row r="3" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="D2" s="84"/>
+    </row>
+    <row r="3" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="86"/>
-    </row>
-    <row r="4" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="O4" s="74" t="s">
+      <c r="D4" s="84"/>
+      <c r="O4" s="72" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+    <row r="5" spans="1:18" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="O5" s="102" t="s">
+      <c r="O5" s="98" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+    <row r="6" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="O6" s="74" t="s">
+      <c r="D6" s="84"/>
+      <c r="O6" s="72" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+    <row r="7" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="O7" s="104" t="s">
+      <c r="O7" s="100" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+    <row r="8" spans="1:18" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="O8" s="107" t="s">
+      <c r="O8" s="102" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,19 +2741,19 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="M9" s="74" t="s">
+      <c r="M9" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+    <row r="10" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="82" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="P10" s="99" t="s">
+      <c r="D10" s="84"/>
+      <c r="P10" s="95" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2757,10 +2764,10 @@
       <c r="B11" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="101"/>
+      <c r="D11" s="97"/>
     </row>
     <row r="12" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2775,46 +2782,46 @@
       <c r="B13" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="122" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="101"/>
+      <c r="D13" s="97"/>
     </row>
     <row r="14" spans="1:18" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="G14" s="88" t="s">
+      <c r="D14" s="86"/>
+      <c r="G14" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="J14" s="131"/>
-      <c r="K14" s="90" t="s">
+      <c r="J14" s="124"/>
+      <c r="K14" s="88" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+    <row r="15" spans="1:18" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="74" t="s">
+      <c r="D15" s="84"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="102" t="s">
+      <c r="M15" s="98" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2829,7 +2836,7 @@
         <v>116</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="84" t="s">
         <v>206</v>
       </c>
       <c r="M16" s="42" t="s">
@@ -2849,7 +2856,7 @@
       <c r="I17" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="131"/>
+      <c r="J17" s="124"/>
       <c r="K17" s="42" t="s">
         <v>21</v>
       </c>
@@ -2867,7 +2874,7 @@
       <c r="I18" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="J18" s="131"/>
+      <c r="J18" s="124"/>
       <c r="K18" s="42" t="s">
         <v>21</v>
       </c>
@@ -2888,7 +2895,7 @@
       <c r="C20" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="131"/>
+      <c r="J20" s="124"/>
       <c r="K20" s="42" t="s">
         <v>21</v>
       </c>
@@ -2906,7 +2913,7 @@
       <c r="C21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="J21" s="131"/>
+      <c r="J21" s="124"/>
       <c r="K21" s="42" t="s">
         <v>21</v>
       </c>
@@ -2927,7 +2934,7 @@
       <c r="E22" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="131"/>
+      <c r="J22" s="124"/>
       <c r="K22" s="42" t="s">
         <v>21</v>
       </c>
@@ -2948,7 +2955,7 @@
       <c r="E23" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="131"/>
+      <c r="J23" s="124"/>
       <c r="K23" s="42" t="s">
         <v>21</v>
       </c>
@@ -2956,32 +2963,32 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+    <row r="24" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="85" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="131"/>
-      <c r="K24" s="86" t="s">
+      <c r="J24" s="124"/>
+      <c r="K24" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="102" t="s">
+      <c r="M24" s="98" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+    <row r="25" spans="1:15" s="100" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O25" s="104" t="s">
+      <c r="O25" s="100" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2989,7 +2996,7 @@
       <c r="A26" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -3001,7 +3008,7 @@
       <c r="I26" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J26" s="131"/>
+      <c r="J26" s="124"/>
       <c r="K26" s="27" t="s">
         <v>21</v>
       </c>
@@ -3034,7 +3041,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="80" t="s">
         <v>213</v>
       </c>
       <c r="B28" s="52" t="s">
@@ -3044,12 +3051,12 @@
         <v>127</v>
       </c>
       <c r="D28" s="43"/>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="J28" s="131"/>
+      <c r="J28" s="124"/>
       <c r="K28" s="27" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3065,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="80" t="s">
         <v>215</v>
       </c>
       <c r="B29" s="52" t="s">
@@ -3068,13 +3075,13 @@
         <v>132</v>
       </c>
       <c r="D29" s="43"/>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="J29" s="131"/>
+      <c r="J29" s="124"/>
       <c r="K29" s="42" t="s">
         <v>21</v>
       </c>
@@ -3083,7 +3090,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="80" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="52" t="s">
@@ -3093,12 +3100,12 @@
         <v>37</v>
       </c>
       <c r="D30" s="25"/>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="J30" s="131"/>
+      <c r="J30" s="124"/>
       <c r="K30" s="27" t="s">
         <v>21</v>
       </c>
@@ -3125,7 +3132,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="80" t="s">
         <v>217</v>
       </c>
       <c r="B32" s="52" t="s">
@@ -3135,12 +3142,12 @@
         <v>38</v>
       </c>
       <c r="D32" s="25"/>
-      <c r="E32" s="86" t="s">
+      <c r="E32" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
-      <c r="J32" s="131"/>
+      <c r="J32" s="124"/>
       <c r="K32" s="27" t="s">
         <v>21</v>
       </c>
@@ -3149,7 +3156,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="80" t="s">
         <v>218</v>
       </c>
       <c r="B33" s="52" t="s">
@@ -3159,12 +3166,12 @@
         <v>39</v>
       </c>
       <c r="D33" s="25"/>
-      <c r="E33" s="86" t="s">
+      <c r="E33" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="J33" s="131"/>
+      <c r="J33" s="124"/>
       <c r="K33" s="27" t="s">
         <v>21</v>
       </c>
@@ -3179,22 +3186,22 @@
       <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="80" t="s">
         <v>216</v>
       </c>
       <c r="B35" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="86" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="J35" s="131"/>
+      <c r="J35" s="124"/>
       <c r="K35" s="27" t="s">
         <v>21</v>
       </c>
@@ -3221,7 +3228,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="80" t="s">
         <v>219</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -3231,12 +3238,12 @@
         <v>145</v>
       </c>
       <c r="D37" s="43"/>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="J37" s="131"/>
+      <c r="J37" s="124"/>
       <c r="K37" s="27" t="s">
         <v>21</v>
       </c>
@@ -3257,10 +3264,10 @@
       <c r="D38" s="43"/>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="I38" s="112" t="s">
+      <c r="I38" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="132" t="s">
+      <c r="J38" s="125" t="s">
         <v>290</v>
       </c>
       <c r="K38" s="27" t="s">
@@ -3268,22 +3275,22 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="86" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
-      <c r="J39" s="131"/>
+      <c r="J39" s="124"/>
       <c r="K39" s="27" t="s">
         <v>21</v>
       </c>
@@ -3314,7 +3321,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="80" t="s">
         <v>220</v>
       </c>
       <c r="B42" s="52" t="s">
@@ -3324,13 +3331,13 @@
         <v>150</v>
       </c>
       <c r="D42" s="43"/>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="131"/>
+      <c r="J42" s="124"/>
       <c r="K42" s="27" t="s">
         <v>21</v>
       </c>
@@ -3339,7 +3346,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="80" t="s">
         <v>221</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -3349,13 +3356,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="131"/>
+      <c r="J43" s="124"/>
       <c r="K43" s="27" t="s">
         <v>21</v>
       </c>
@@ -3373,17 +3380,17 @@
       <c r="A45" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="104" t="s">
         <v>266</v>
       </c>
-      <c r="C45" s="120" t="s">
+      <c r="C45" s="113" t="s">
         <v>283</v>
       </c>
-      <c r="D45" s="86"/>
-      <c r="I45" s="109" t="s">
+      <c r="D45" s="84"/>
+      <c r="I45" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="J45" s="131" t="s">
+      <c r="J45" s="124" t="s">
         <v>291</v>
       </c>
       <c r="K45" s="42" t="s">
@@ -3401,26 +3408,26 @@
         <v>268</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="F46" s="109" t="s">
+      <c r="F46" s="103" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="105" t="s">
         <v>273</v>
       </c>
-      <c r="D47" s="58"/>
-      <c r="E47" s="86" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="84" t="s">
         <v>214</v>
       </c>
       <c r="H47" s="55"/>
-      <c r="J47" s="131"/>
+      <c r="J47" s="124"/>
       <c r="K47" s="43" t="s">
         <v>21</v>
       </c>
@@ -3432,110 +3439,110 @@
       <c r="B48" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="112" t="s">
+      <c r="C48" s="106" t="s">
         <v>281</v>
       </c>
       <c r="D48" s="43"/>
-      <c r="J48" s="131"/>
+      <c r="J48" s="124"/>
       <c r="K48" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="55" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+    <row r="49" spans="1:15" s="99" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="130" t="s">
         <v>282</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="G49" s="117" t="s">
+      <c r="D49" s="130"/>
+      <c r="G49" s="131" t="s">
         <v>293</v>
       </c>
-      <c r="J49" s="131"/>
-      <c r="K49" s="55" t="s">
+      <c r="J49" s="132"/>
+      <c r="K49" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="M49" s="103" t="s">
+      <c r="M49" s="99" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104" t="s">
+    <row r="50" spans="1:15" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="O50" s="109" t="s">
+      <c r="O50" s="135" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="86" t="s">
+    <row r="51" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="H51" s="55"/>
-      <c r="O51" s="109" t="s">
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="H51" s="99"/>
+      <c r="O51" s="135" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104" t="s">
+    <row r="52" spans="1:15" s="133" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="130" t="s">
+      <c r="B52" s="139" t="s">
         <v>295</v>
       </c>
-      <c r="O52" s="131" t="s">
+      <c r="O52" s="132" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+    <row r="53" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="130" t="s">
+      <c r="B53" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="H53" s="55"/>
-      <c r="O53" s="131" t="s">
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="H53" s="99"/>
+      <c r="O53" s="132" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="121" t="s">
+    <row r="54" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="115" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="123" t="s">
+      <c r="C54" s="116" t="s">
         <v>245</v>
       </c>
       <c r="D54" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="E54" s="124"/>
-      <c r="M54" s="126" t="s">
+      <c r="E54" s="117"/>
+      <c r="M54" s="119" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="126" t="s">
+    <row r="55" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="127" t="s">
+      <c r="B55" s="120" t="s">
         <v>246</v>
       </c>
       <c r="C55" s="55" t="s">
@@ -3543,11 +3550,11 @@
       </c>
       <c r="D55" s="55"/>
     </row>
-    <row r="56" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="126" t="s">
+    <row r="56" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="120" t="s">
         <v>248</v>
       </c>
       <c r="C56" s="55" t="s">
@@ -3555,11 +3562,11 @@
       </c>
       <c r="D56" s="55"/>
     </row>
-    <row r="57" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="126" t="s">
+    <row r="57" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="120" t="s">
         <v>250</v>
       </c>
       <c r="C57" s="55" t="s">
@@ -3567,11 +3574,11 @@
       </c>
       <c r="D57" s="55"/>
     </row>
-    <row r="58" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="126" t="s">
+    <row r="58" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="127" t="s">
+      <c r="B58" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C58" s="55" t="s">
@@ -3579,11 +3586,11 @@
       </c>
       <c r="D58" s="55"/>
     </row>
-    <row r="59" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="126" t="s">
+    <row r="59" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="127" t="s">
+      <c r="B59" s="120" t="s">
         <v>254</v>
       </c>
       <c r="C59" s="55" t="s">
@@ -3591,11 +3598,11 @@
       </c>
       <c r="D59" s="55"/>
     </row>
-    <row r="60" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="126" t="s">
+    <row r="60" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="127" t="s">
+      <c r="B60" s="120" t="s">
         <v>256</v>
       </c>
       <c r="C60" s="55" t="s">
@@ -3603,11 +3610,11 @@
       </c>
       <c r="D60" s="55"/>
     </row>
-    <row r="61" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="126" t="s">
+    <row r="61" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="127" t="s">
+      <c r="B61" s="120" t="s">
         <v>258</v>
       </c>
       <c r="C61" s="55" t="s">
@@ -3615,19 +3622,19 @@
       </c>
       <c r="D61" s="55"/>
     </row>
-    <row r="62" spans="1:15" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="121" t="s">
+    <row r="62" spans="1:15" s="118" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="127"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
     </row>
-    <row r="63" spans="1:15" s="126" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="126" t="s">
+    <row r="63" spans="1:15" s="119" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="127" t="s">
+      <c r="B63" s="120" t="s">
         <v>261</v>
       </c>
       <c r="C63" s="55" t="s">
@@ -3635,18 +3642,18 @@
       </c>
       <c r="D63" s="55"/>
       <c r="H63" s="55"/>
-      <c r="O63" s="126" t="s">
+      <c r="O63" s="119" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="86" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+    <row r="64" spans="1:15" s="84" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="128" t="s">
         <v>300</v>
       </c>
       <c r="D64" s="43"/>
@@ -3654,64 +3661,64 @@
       <c r="I64" s="55"/>
     </row>
     <row r="65" spans="1:18" s="42" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="C65" s="134" t="s">
+      <c r="C65" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="D65" s="88"/>
-      <c r="G65" s="134" t="s">
+      <c r="D65" s="86"/>
+      <c r="G65" s="127" t="s">
         <v>299</v>
       </c>
       <c r="H65" s="55" t="s">
         <v>287</v>
       </c>
       <c r="I65" s="55"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="90" t="s">
+      <c r="J65" s="124"/>
+      <c r="K65" s="88" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="86" t="s">
+      <c r="D66" s="57"/>
+      <c r="E66" s="84" t="s">
         <v>214</v>
       </c>
       <c r="H66" s="55" t="s">
         <v>166</v>
       </c>
       <c r="I66" s="55"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="63" t="s">
+      <c r="J66" s="112"/>
+      <c r="K66" s="62" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="112" t="s">
+      <c r="A67" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="86"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="84"/>
       <c r="H67" s="55"/>
-      <c r="K67" s="63"/>
-      <c r="O67" s="112" t="s">
+      <c r="K67" s="62"/>
+      <c r="O67" s="106" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3721,40 +3728,40 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="114" t="s">
+      <c r="A69" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="115" t="s">
+      <c r="B69" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="O69" s="112" t="s">
+      <c r="O69" s="106" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="130" t="s">
+      <c r="B70" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="133" t="s">
+      <c r="C70" s="126" t="s">
         <v>294</v>
       </c>
-      <c r="H70" s="114" t="s">
+      <c r="H70" s="108" t="s">
         <v>280</v>
       </c>
-      <c r="I70" s="114" t="s">
+      <c r="I70" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="J70" s="131" t="s">
+      <c r="J70" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="K70" s="131" t="s">
+      <c r="K70" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="L70" s="116"/>
-      <c r="O70" s="114"/>
+      <c r="L70" s="110"/>
+      <c r="O70" s="108"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
@@ -3763,13 +3770,13 @@
       <c r="B71" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="63"/>
+      <c r="D71" s="62"/>
       <c r="E71" s="25"/>
       <c r="G71" s="25"/>
-      <c r="J71" s="131"/>
+      <c r="J71" s="124"/>
       <c r="K71" s="27" t="s">
         <v>21</v>
       </c>
@@ -3780,19 +3787,19 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="119" t="s">
+      <c r="A72" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C72" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="86" t="s">
+      <c r="E72" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="J72" s="131"/>
+      <c r="J72" s="124"/>
       <c r="K72" s="27" t="s">
         <v>21</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>50</v>
       </c>
       <c r="D73" s="33"/>
-      <c r="H73" s="69" t="s">
+      <c r="H73" s="67" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3843,7 +3850,7 @@
       <c r="B75" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="O75" s="59" t="s">
+      <c r="O75" s="58" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3859,7 +3866,7 @@
       <c r="B77" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="134" t="s">
+      <c r="C77" s="127" t="s">
         <v>292</v>
       </c>
       <c r="D77" s="30"/>
@@ -3869,14 +3876,14 @@
       <c r="A78" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="59" t="s">
         <v>158</v>
       </c>
       <c r="C78" s="25" t="s">
         <v>98</v>
       </c>
       <c r="D78" s="25"/>
-      <c r="J78" s="131"/>
+      <c r="J78" s="124"/>
       <c r="K78" s="27" t="s">
         <v>21</v>
       </c>
@@ -4051,13 +4058,13 @@
       <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:6" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="79" t="s">
         <v>201</v>
       </c>
       <c r="E15" s="50"/>
@@ -4070,7 +4077,7 @@
       <c r="A17" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="69" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4079,31 +4086,31 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="95"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="91"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="91" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B21" s="93">
         <v>1</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="91" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4202,4792 +4209,4792 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="75" customWidth="1"/>
-    <col min="2" max="2" width="26.125" style="75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="75" customWidth="1"/>
-    <col min="4" max="5" width="9" style="75"/>
-    <col min="6" max="6" width="34.875" style="75" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="75"/>
+    <col min="1" max="1" width="23" style="73" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="73" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="73" customWidth="1"/>
+    <col min="4" max="5" width="9" style="73"/>
+    <col min="6" max="6" width="34.875" style="73" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="73" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="73" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
+      <c r="A46" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="75" t="s">
+      <c r="A54" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="75" t="s">
+      <c r="A55" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="75" t="s">
+      <c r="A56" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="75" t="s">
+      <c r="A57" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="75" t="s">
+      <c r="A58" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="75" t="s">
+      <c r="A59" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="75" t="s">
+      <c r="A65" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
+      <c r="A66" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="75" t="s">
+      <c r="A67" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75" t="s">
+      <c r="A68" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="75" t="s">
+      <c r="A69" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="75" t="s">
+      <c r="A70" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="75" t="s">
+      <c r="A71" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="75" t="s">
+      <c r="A72" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="75" t="s">
+      <c r="A73" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75" t="s">
+      <c r="A74" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="75" t="s">
+      <c r="A75" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="75" t="s">
+      <c r="A76" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="75" t="s">
+      <c r="A77" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="75" t="s">
+      <c r="A78" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="75" t="s">
+      <c r="A79" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="75" t="s">
+      <c r="A80" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="s">
+      <c r="A81" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="75" t="s">
+      <c r="A82" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="75" t="s">
+      <c r="A83" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="75" t="s">
+      <c r="A84" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="75" t="s">
+      <c r="A85" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="75" t="s">
+      <c r="A86" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="75" t="s">
+      <c r="A87" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="75" t="s">
+      <c r="A88" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="75" t="s">
+      <c r="A89" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="75" t="s">
+      <c r="A90" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="75" t="s">
+      <c r="A91" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="75" t="s">
+      <c r="A93" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="75" t="s">
+      <c r="A95" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="75" t="s">
+      <c r="A96" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="75" t="s">
+      <c r="A97" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="75" t="s">
+      <c r="A98" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="75" t="s">
+      <c r="A99" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="75" t="s">
+      <c r="A100" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="75" t="s">
+      <c r="A101" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="75" t="s">
+      <c r="A102" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="75" t="s">
+      <c r="A103" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="75" t="s">
+      <c r="A104" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="75" t="s">
+      <c r="A105" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="75" t="s">
+      <c r="A106" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="75" t="s">
+      <c r="A107" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="75" t="s">
+      <c r="A108" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="75" t="s">
+      <c r="A109" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="75" t="s">
+      <c r="A110" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="75" t="s">
+      <c r="A111" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="75" t="s">
+      <c r="A112" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="75" t="s">
+      <c r="A113" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="75" t="s">
+      <c r="A114" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="75" t="s">
+      <c r="A115" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="75" t="s">
+      <c r="A116" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="75" t="s">
+      <c r="A117" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="75" t="s">
+      <c r="A118" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="75" t="s">
+      <c r="A119" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="75" t="s">
+      <c r="A120" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="75" t="s">
+      <c r="A121" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="75" t="s">
+      <c r="A122" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="75" t="s">
+      <c r="A123" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="75" t="s">
+      <c r="A124" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="75" t="s">
+      <c r="A125" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="75" t="s">
+      <c r="A126" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="75" t="s">
+      <c r="A127" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="75" t="s">
+      <c r="A128" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="75" t="s">
+      <c r="A129" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="75" t="s">
+      <c r="A130" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="75" t="s">
+      <c r="A131" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="75" t="s">
+      <c r="A132" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="75" t="s">
+      <c r="A133" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="75" t="s">
+      <c r="A134" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="75" t="s">
+      <c r="A135" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="75" t="s">
+      <c r="A136" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="75" t="s">
+      <c r="A137" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="75" t="s">
+      <c r="A138" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="75" t="s">
+      <c r="A139" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="75" t="s">
+      <c r="A140" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="75" t="s">
+      <c r="A141" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="75" t="s">
+      <c r="A142" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="75" t="s">
+      <c r="A143" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="75" t="s">
+      <c r="A144" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="75" t="s">
+      <c r="A145" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="75" t="s">
+      <c r="A146" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="75" t="s">
+      <c r="A147" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="75" t="s">
+      <c r="A148" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="75" t="s">
+      <c r="A149" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="75" t="s">
+      <c r="A150" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="75" t="s">
+      <c r="A151" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="75" t="s">
+      <c r="A152" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="75" t="s">
+      <c r="A153" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="75" t="s">
+      <c r="A154" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="75" t="s">
+      <c r="A155" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="75" t="s">
+      <c r="A156" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="75" t="s">
+      <c r="A157" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="75" t="s">
+      <c r="A158" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="75" t="s">
+      <c r="A159" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="75" t="s">
+      <c r="A160" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="75" t="s">
+      <c r="A161" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="75" t="s">
+      <c r="A162" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="75" t="s">
+      <c r="A163" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="75" t="s">
+      <c r="A164" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="75" t="s">
+      <c r="A165" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="75" t="s">
+      <c r="A166" s="73" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="75" t="s">
+      <c r="A167" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="75" t="s">
+      <c r="A169" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="75" t="s">
+      <c r="A170" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="75" t="s">
+      <c r="A171" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="75" t="s">
+      <c r="A172" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="75" t="s">
+      <c r="A173" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="75" t="s">
+      <c r="A174" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="75" t="s">
+      <c r="A175" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="75" t="s">
+      <c r="A176" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="75" t="s">
+      <c r="A177" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="75" t="s">
+      <c r="A178" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="75" t="s">
+      <c r="A179" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="75" t="s">
+      <c r="A180" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="75" t="s">
+      <c r="A181" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="75" t="s">
+      <c r="A182" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="75" t="s">
+      <c r="A183" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="75" t="s">
+      <c r="A184" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="75" t="s">
+      <c r="A185" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="75" t="s">
+      <c r="A186" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="75" t="s">
+      <c r="A187" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="75" t="s">
+      <c r="A188" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="75" t="s">
+      <c r="A189" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="75" t="s">
+      <c r="A190" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="75" t="s">
+      <c r="A191" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="75" t="s">
+      <c r="A192" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="75" t="s">
+      <c r="A193" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="75" t="s">
+      <c r="A194" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="75" t="s">
+      <c r="A195" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="75" t="s">
+      <c r="A196" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="75" t="s">
+      <c r="A197" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="75" t="s">
+      <c r="A198" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="75" t="s">
+      <c r="A199" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="75" t="s">
+      <c r="A200" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="75" t="s">
+      <c r="A201" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="75" t="s">
+      <c r="A202" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="75" t="s">
+      <c r="A203" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="75" t="s">
+      <c r="A204" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="75" t="s">
+      <c r="A205" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="75" t="s">
+      <c r="A206" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="75" t="s">
+      <c r="A207" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="75" t="s">
+      <c r="A208" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="75" t="s">
+      <c r="A209" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="75" t="s">
+      <c r="A210" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="75" t="s">
+      <c r="A211" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="75" t="s">
+      <c r="A212" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="75" t="s">
+      <c r="A213" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="75" t="s">
+      <c r="A214" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="75" t="s">
+      <c r="A215" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="75" t="s">
+      <c r="A216" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="75" t="s">
+      <c r="A217" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="75" t="s">
+      <c r="A218" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="75" t="s">
+      <c r="A219" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="75" t="s">
+      <c r="A220" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="75" t="s">
+      <c r="A221" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="75" t="s">
+      <c r="A222" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="75" t="s">
+      <c r="A223" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="75" t="s">
+      <c r="A224" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="75" t="s">
+      <c r="A225" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="75" t="s">
+      <c r="A226" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="75" t="s">
+      <c r="A227" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="75" t="s">
+      <c r="A228" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="75" t="s">
+      <c r="A229" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="75" t="s">
+      <c r="A230" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="75" t="s">
+      <c r="A231" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="75" t="s">
+      <c r="A232" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="75" t="s">
+      <c r="A233" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="75" t="s">
+      <c r="A234" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="75" t="s">
+      <c r="A235" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="75" t="s">
+      <c r="A236" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="75" t="s">
+      <c r="A237" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="75" t="s">
+      <c r="A238" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="75" t="s">
+      <c r="A239" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="75" t="s">
+      <c r="A240" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="75" t="s">
+      <c r="A241" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="75" t="s">
+      <c r="A242" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="75" t="s">
+      <c r="A243" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="75" t="s">
+      <c r="A244" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="75" t="s">
+      <c r="A245" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="75" t="s">
+      <c r="A246" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="75" t="s">
+      <c r="A247" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="75" t="s">
+      <c r="A248" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="75" t="s">
+      <c r="A249" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="75" t="s">
+      <c r="A250" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="75" t="s">
+      <c r="A251" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="75" t="s">
+      <c r="A252" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="75" t="s">
+      <c r="A253" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="75" t="s">
+      <c r="A254" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="75" t="s">
+      <c r="A255" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="75" t="s">
+      <c r="A256" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="75" t="s">
+      <c r="A257" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="75" t="s">
+      <c r="A258" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="75" t="s">
+      <c r="A259" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="75" t="s">
+      <c r="A260" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="75" t="s">
+      <c r="A261" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="75" t="s">
+      <c r="A262" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="75" t="s">
+      <c r="A263" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="75" t="s">
+      <c r="A264" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="75" t="s">
+      <c r="A265" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="75" t="s">
+      <c r="A266" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="75" t="s">
+      <c r="A267" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="75" t="s">
+      <c r="A268" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="75" t="s">
+      <c r="A269" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="75" t="s">
+      <c r="A270" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="75" t="s">
+      <c r="A271" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="75" t="s">
+      <c r="A272" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="75" t="s">
+      <c r="A273" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="75" t="s">
+      <c r="A274" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="75" t="s">
+      <c r="A275" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="75" t="s">
+      <c r="A276" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="75" t="s">
+      <c r="A277" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="75" t="s">
+      <c r="A278" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="75" t="s">
+      <c r="A279" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="75" t="s">
+      <c r="A280" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="75" t="s">
+      <c r="A281" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="75" t="s">
+      <c r="A282" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="75" t="s">
+      <c r="A283" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="75" t="s">
+      <c r="A284" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="75" t="s">
+      <c r="A285" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="75" t="s">
+      <c r="A286" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="75" t="s">
+      <c r="A287" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="75" t="s">
+      <c r="A288" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="75" t="s">
+      <c r="A289" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="75" t="s">
+      <c r="A290" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="75" t="s">
+      <c r="A291" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="75" t="s">
+      <c r="A292" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="75" t="s">
+      <c r="A293" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="75" t="s">
+      <c r="A294" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="75" t="s">
+      <c r="A295" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="75" t="s">
+      <c r="A296" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="75" t="s">
+      <c r="A297" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="75" t="s">
+      <c r="A298" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="75" t="s">
+      <c r="A299" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="75" t="s">
+      <c r="A300" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="75" t="s">
+      <c r="A301" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="75" t="s">
+      <c r="A302" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="75" t="s">
+      <c r="A303" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="75" t="s">
+      <c r="A304" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="75" t="s">
+      <c r="A305" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="75" t="s">
+      <c r="A306" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="75" t="s">
+      <c r="A307" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="75" t="s">
+      <c r="A308" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="75" t="s">
+      <c r="A309" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="75" t="s">
+      <c r="A310" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="75" t="s">
+      <c r="A311" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="75" t="s">
+      <c r="A312" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="75" t="s">
+      <c r="A313" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="75" t="s">
+      <c r="A314" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="75" t="s">
+      <c r="A315" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="75" t="s">
+      <c r="A316" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="75" t="s">
+      <c r="A317" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="75" t="s">
+      <c r="A318" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="75" t="s">
+      <c r="A319" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="75" t="s">
+      <c r="A320" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="75" t="s">
+      <c r="A321" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="75" t="s">
+      <c r="A322" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="75" t="s">
+      <c r="A323" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="75" t="s">
+      <c r="A324" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="75" t="s">
+      <c r="A325" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="75" t="s">
+      <c r="A326" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="75" t="s">
+      <c r="A327" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="75" t="s">
+      <c r="A328" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B329" s="76"/>
-      <c r="C329" s="76"/>
-      <c r="D329" s="76"/>
-      <c r="E329" s="76"/>
+      <c r="A329" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B329" s="74"/>
+      <c r="C329" s="74"/>
+      <c r="D329" s="74"/>
+      <c r="E329" s="74"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B330" s="76"/>
-      <c r="C330" s="76"/>
-      <c r="D330" s="76"/>
-      <c r="E330" s="76"/>
+      <c r="A330" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B330" s="74"/>
+      <c r="C330" s="74"/>
+      <c r="D330" s="74"/>
+      <c r="E330" s="74"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B331" s="76"/>
-      <c r="C331" s="76"/>
-      <c r="D331" s="76"/>
-      <c r="E331" s="76"/>
+      <c r="A331" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B331" s="74"/>
+      <c r="C331" s="74"/>
+      <c r="D331" s="74"/>
+      <c r="E331" s="74"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B332" s="76"/>
-      <c r="C332" s="76"/>
-      <c r="D332" s="76"/>
-      <c r="E332" s="76"/>
+      <c r="A332" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B332" s="74"/>
+      <c r="C332" s="74"/>
+      <c r="D332" s="74"/>
+      <c r="E332" s="74"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B333" s="76"/>
-      <c r="C333" s="76"/>
-      <c r="D333" s="76"/>
-      <c r="E333" s="76"/>
+      <c r="A333" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B333" s="74"/>
+      <c r="C333" s="74"/>
+      <c r="D333" s="74"/>
+      <c r="E333" s="74"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B334" s="76"/>
-      <c r="C334" s="76"/>
-      <c r="D334" s="76"/>
-      <c r="E334" s="76"/>
+      <c r="A334" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B334" s="74"/>
+      <c r="C334" s="74"/>
+      <c r="D334" s="74"/>
+      <c r="E334" s="74"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B335" s="76"/>
-      <c r="C335" s="76"/>
-      <c r="D335" s="76"/>
-      <c r="E335" s="76"/>
+      <c r="A335" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B335" s="74"/>
+      <c r="C335" s="74"/>
+      <c r="D335" s="74"/>
+      <c r="E335" s="74"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B336" s="76"/>
-      <c r="C336" s="76"/>
-      <c r="D336" s="76"/>
-      <c r="E336" s="76"/>
+      <c r="A336" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B336" s="74"/>
+      <c r="C336" s="74"/>
+      <c r="D336" s="74"/>
+      <c r="E336" s="74"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B337" s="76"/>
-      <c r="C337" s="76"/>
-      <c r="D337" s="76"/>
-      <c r="E337" s="76"/>
+      <c r="A337" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B337" s="74"/>
+      <c r="C337" s="74"/>
+      <c r="D337" s="74"/>
+      <c r="E337" s="74"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B338" s="76"/>
-      <c r="C338" s="76"/>
-      <c r="D338" s="76"/>
-      <c r="E338" s="76"/>
+      <c r="A338" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B338" s="74"/>
+      <c r="C338" s="74"/>
+      <c r="D338" s="74"/>
+      <c r="E338" s="74"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B339" s="76"/>
-      <c r="C339" s="76"/>
-      <c r="D339" s="76"/>
-      <c r="E339" s="76"/>
+      <c r="A339" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B339" s="74"/>
+      <c r="C339" s="74"/>
+      <c r="D339" s="74"/>
+      <c r="E339" s="74"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B340" s="76"/>
-      <c r="C340" s="76"/>
-      <c r="D340" s="76"/>
-      <c r="E340" s="76"/>
+      <c r="A340" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B340" s="74"/>
+      <c r="C340" s="74"/>
+      <c r="D340" s="74"/>
+      <c r="E340" s="74"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B341" s="76"/>
-      <c r="C341" s="76"/>
-      <c r="D341" s="76"/>
-      <c r="E341" s="76"/>
+      <c r="A341" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B341" s="74"/>
+      <c r="C341" s="74"/>
+      <c r="D341" s="74"/>
+      <c r="E341" s="74"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B342" s="76"/>
-      <c r="C342" s="76"/>
-      <c r="D342" s="76"/>
-      <c r="E342" s="76"/>
+      <c r="A342" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B342" s="74"/>
+      <c r="C342" s="74"/>
+      <c r="D342" s="74"/>
+      <c r="E342" s="74"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B343" s="76"/>
-      <c r="C343" s="76"/>
-      <c r="D343" s="76"/>
-      <c r="E343" s="76"/>
+      <c r="A343" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B343" s="74"/>
+      <c r="C343" s="74"/>
+      <c r="D343" s="74"/>
+      <c r="E343" s="74"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B344" s="76"/>
-      <c r="C344" s="76"/>
-      <c r="D344" s="76"/>
-      <c r="E344" s="76"/>
+      <c r="A344" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B344" s="74"/>
+      <c r="C344" s="74"/>
+      <c r="D344" s="74"/>
+      <c r="E344" s="74"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B345" s="76"/>
-      <c r="C345" s="76"/>
-      <c r="D345" s="76"/>
-      <c r="E345" s="76"/>
+      <c r="A345" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B345" s="74"/>
+      <c r="C345" s="74"/>
+      <c r="D345" s="74"/>
+      <c r="E345" s="74"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B346" s="76"/>
-      <c r="C346" s="76"/>
-      <c r="D346" s="76"/>
-      <c r="E346" s="76"/>
+      <c r="A346" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B346" s="74"/>
+      <c r="C346" s="74"/>
+      <c r="D346" s="74"/>
+      <c r="E346" s="74"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B347" s="76"/>
-      <c r="C347" s="76"/>
-      <c r="D347" s="76"/>
-      <c r="E347" s="76"/>
+      <c r="A347" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B347" s="74"/>
+      <c r="C347" s="74"/>
+      <c r="D347" s="74"/>
+      <c r="E347" s="74"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B348" s="76"/>
-      <c r="C348" s="76"/>
-      <c r="D348" s="76"/>
-      <c r="E348" s="76"/>
+      <c r="A348" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B348" s="74"/>
+      <c r="C348" s="74"/>
+      <c r="D348" s="74"/>
+      <c r="E348" s="74"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B349" s="76"/>
-      <c r="C349" s="76"/>
-      <c r="D349" s="76"/>
-      <c r="E349" s="76"/>
+      <c r="A349" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B349" s="74"/>
+      <c r="C349" s="74"/>
+      <c r="D349" s="74"/>
+      <c r="E349" s="74"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B350" s="76"/>
-      <c r="C350" s="76"/>
-      <c r="D350" s="76"/>
-      <c r="E350" s="76"/>
+      <c r="A350" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B350" s="74"/>
+      <c r="C350" s="74"/>
+      <c r="D350" s="74"/>
+      <c r="E350" s="74"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B351" s="76"/>
-      <c r="C351" s="76"/>
-      <c r="D351" s="76"/>
-      <c r="E351" s="76"/>
+      <c r="A351" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B351" s="74"/>
+      <c r="C351" s="74"/>
+      <c r="D351" s="74"/>
+      <c r="E351" s="74"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B352" s="76"/>
-      <c r="C352" s="76"/>
-      <c r="D352" s="76"/>
-      <c r="E352" s="76"/>
+      <c r="A352" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B352" s="74"/>
+      <c r="C352" s="74"/>
+      <c r="D352" s="74"/>
+      <c r="E352" s="74"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B353" s="76"/>
-      <c r="C353" s="76"/>
-      <c r="D353" s="76"/>
-      <c r="E353" s="76"/>
+      <c r="A353" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B353" s="74"/>
+      <c r="C353" s="74"/>
+      <c r="D353" s="74"/>
+      <c r="E353" s="74"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B354" s="76"/>
-      <c r="C354" s="76"/>
-      <c r="D354" s="76"/>
-      <c r="E354" s="76"/>
+      <c r="A354" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B354" s="74"/>
+      <c r="C354" s="74"/>
+      <c r="D354" s="74"/>
+      <c r="E354" s="74"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B355" s="76"/>
-      <c r="C355" s="76"/>
-      <c r="D355" s="76"/>
-      <c r="E355" s="76"/>
+      <c r="A355" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B355" s="74"/>
+      <c r="C355" s="74"/>
+      <c r="D355" s="74"/>
+      <c r="E355" s="74"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B356" s="76"/>
-      <c r="C356" s="76"/>
-      <c r="D356" s="76"/>
-      <c r="E356" s="76"/>
+      <c r="A356" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B356" s="74"/>
+      <c r="C356" s="74"/>
+      <c r="D356" s="74"/>
+      <c r="E356" s="74"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B357" s="76"/>
-      <c r="C357" s="76"/>
-      <c r="D357" s="76"/>
-      <c r="E357" s="76"/>
+      <c r="A357" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B357" s="74"/>
+      <c r="C357" s="74"/>
+      <c r="D357" s="74"/>
+      <c r="E357" s="74"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B358" s="76"/>
-      <c r="C358" s="76"/>
-      <c r="D358" s="76"/>
-      <c r="E358" s="76"/>
+      <c r="A358" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B358" s="74"/>
+      <c r="C358" s="74"/>
+      <c r="D358" s="74"/>
+      <c r="E358" s="74"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B359" s="76"/>
-      <c r="C359" s="76"/>
-      <c r="D359" s="76"/>
-      <c r="E359" s="76"/>
+      <c r="A359" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B359" s="74"/>
+      <c r="C359" s="74"/>
+      <c r="D359" s="74"/>
+      <c r="E359" s="74"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B360" s="76"/>
-      <c r="C360" s="76"/>
-      <c r="D360" s="76"/>
-      <c r="E360" s="76"/>
+      <c r="A360" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B360" s="74"/>
+      <c r="C360" s="74"/>
+      <c r="D360" s="74"/>
+      <c r="E360" s="74"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B361" s="76"/>
-      <c r="C361" s="76"/>
-      <c r="D361" s="76"/>
-      <c r="E361" s="76"/>
+      <c r="A361" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B361" s="74"/>
+      <c r="C361" s="74"/>
+      <c r="D361" s="74"/>
+      <c r="E361" s="74"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B362" s="76"/>
-      <c r="C362" s="76"/>
-      <c r="D362" s="76"/>
-      <c r="E362" s="76"/>
+      <c r="A362" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B362" s="74"/>
+      <c r="C362" s="74"/>
+      <c r="D362" s="74"/>
+      <c r="E362" s="74"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B363" s="76"/>
-      <c r="C363" s="76"/>
-      <c r="D363" s="76"/>
-      <c r="E363" s="76"/>
+      <c r="A363" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B363" s="74"/>
+      <c r="C363" s="74"/>
+      <c r="D363" s="74"/>
+      <c r="E363" s="74"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B364" s="76"/>
-      <c r="C364" s="76"/>
-      <c r="D364" s="76"/>
-      <c r="E364" s="76"/>
+      <c r="A364" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B364" s="74"/>
+      <c r="C364" s="74"/>
+      <c r="D364" s="74"/>
+      <c r="E364" s="74"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B365" s="76"/>
-      <c r="C365" s="76"/>
-      <c r="D365" s="76"/>
-      <c r="E365" s="76"/>
+      <c r="A365" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B365" s="74"/>
+      <c r="C365" s="74"/>
+      <c r="D365" s="74"/>
+      <c r="E365" s="74"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B366" s="76"/>
-      <c r="C366" s="76"/>
-      <c r="D366" s="76"/>
-      <c r="E366" s="76"/>
+      <c r="A366" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B366" s="74"/>
+      <c r="C366" s="74"/>
+      <c r="D366" s="74"/>
+      <c r="E366" s="74"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B367" s="76"/>
-      <c r="C367" s="76"/>
-      <c r="D367" s="76"/>
-      <c r="E367" s="76"/>
+      <c r="A367" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B367" s="74"/>
+      <c r="C367" s="74"/>
+      <c r="D367" s="74"/>
+      <c r="E367" s="74"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B368" s="76"/>
-      <c r="C368" s="76"/>
-      <c r="D368" s="76"/>
-      <c r="E368" s="76"/>
+      <c r="A368" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B368" s="74"/>
+      <c r="C368" s="74"/>
+      <c r="D368" s="74"/>
+      <c r="E368" s="74"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B369" s="76"/>
-      <c r="C369" s="76"/>
-      <c r="D369" s="76"/>
-      <c r="E369" s="76"/>
+      <c r="A369" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B369" s="74"/>
+      <c r="C369" s="74"/>
+      <c r="D369" s="74"/>
+      <c r="E369" s="74"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B370" s="76"/>
-      <c r="C370" s="76"/>
-      <c r="D370" s="76"/>
-      <c r="E370" s="76"/>
+      <c r="A370" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B370" s="74"/>
+      <c r="C370" s="74"/>
+      <c r="D370" s="74"/>
+      <c r="E370" s="74"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B371" s="76"/>
-      <c r="C371" s="76"/>
-      <c r="D371" s="76"/>
-      <c r="E371" s="76"/>
+      <c r="A371" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B371" s="74"/>
+      <c r="C371" s="74"/>
+      <c r="D371" s="74"/>
+      <c r="E371" s="74"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B372" s="76"/>
-      <c r="C372" s="76"/>
-      <c r="D372" s="76"/>
-      <c r="E372" s="76"/>
+      <c r="A372" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B372" s="74"/>
+      <c r="C372" s="74"/>
+      <c r="D372" s="74"/>
+      <c r="E372" s="74"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B373" s="76"/>
-      <c r="C373" s="76"/>
-      <c r="D373" s="76"/>
-      <c r="E373" s="76"/>
+      <c r="A373" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B373" s="74"/>
+      <c r="C373" s="74"/>
+      <c r="D373" s="74"/>
+      <c r="E373" s="74"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B374" s="76"/>
-      <c r="C374" s="76"/>
-      <c r="D374" s="76"/>
-      <c r="E374" s="76"/>
+      <c r="A374" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B374" s="74"/>
+      <c r="C374" s="74"/>
+      <c r="D374" s="74"/>
+      <c r="E374" s="74"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B375" s="76"/>
-      <c r="C375" s="76"/>
-      <c r="D375" s="76"/>
-      <c r="E375" s="76"/>
+      <c r="A375" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B375" s="74"/>
+      <c r="C375" s="74"/>
+      <c r="D375" s="74"/>
+      <c r="E375" s="74"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B376" s="76"/>
-      <c r="C376" s="76"/>
-      <c r="D376" s="76"/>
-      <c r="E376" s="76"/>
+      <c r="A376" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B376" s="74"/>
+      <c r="C376" s="74"/>
+      <c r="D376" s="74"/>
+      <c r="E376" s="74"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B377" s="76"/>
-      <c r="C377" s="76"/>
-      <c r="D377" s="76"/>
-      <c r="E377" s="76"/>
+      <c r="A377" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B377" s="74"/>
+      <c r="C377" s="74"/>
+      <c r="D377" s="74"/>
+      <c r="E377" s="74"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="B378" s="76"/>
-      <c r="C378" s="76"/>
-      <c r="D378" s="76"/>
-      <c r="E378" s="76"/>
+      <c r="A378" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B378" s="74"/>
+      <c r="C378" s="74"/>
+      <c r="D378" s="74"/>
+      <c r="E378" s="74"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="75" t="s">
+      <c r="A379" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="75" t="s">
+      <c r="A380" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381" s="75" t="s">
+      <c r="A381" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="75" t="s">
+      <c r="A382" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="75" t="s">
+      <c r="A383" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="75" t="s">
+      <c r="A384" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="75" t="s">
+      <c r="A385" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="75" t="s">
+      <c r="A386" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="75" t="s">
+      <c r="A387" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="75" t="s">
+      <c r="A388" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="75" t="s">
+      <c r="A389" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="75" t="s">
+      <c r="A390" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="75" t="s">
+      <c r="A391" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="75" t="s">
+      <c r="A392" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="75" t="s">
+      <c r="A393" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="75" t="s">
+      <c r="A394" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="75" t="s">
+      <c r="A395" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="75" t="s">
+      <c r="A396" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="75" t="s">
+      <c r="A397" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="75" t="s">
+      <c r="A398" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="75" t="s">
+      <c r="A399" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="75" t="s">
+      <c r="A400" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="75" t="s">
+      <c r="A401" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="75" t="s">
+      <c r="A402" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="75" t="s">
+      <c r="A403" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="75" t="s">
+      <c r="A404" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="75" t="s">
+      <c r="A405" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="75" t="s">
+      <c r="A406" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="75" t="s">
+      <c r="A407" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="75" t="s">
+      <c r="A408" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="75" t="s">
+      <c r="A409" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="75" t="s">
+      <c r="A410" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="75" t="s">
+      <c r="A411" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="75" t="s">
+      <c r="A412" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="75" t="s">
+      <c r="A413" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="75" t="s">
+      <c r="A414" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="75" t="s">
+      <c r="A415" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="75" t="s">
+      <c r="A416" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="75" t="s">
+      <c r="A417" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="75" t="s">
+      <c r="A418" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="75" t="s">
+      <c r="A419" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="75" t="s">
+      <c r="A420" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="75" t="s">
+      <c r="A421" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="75" t="s">
+      <c r="A422" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="75" t="s">
+      <c r="A423" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="75" t="s">
+      <c r="A424" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="75" t="s">
+      <c r="A425" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="75" t="s">
+      <c r="A426" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="75" t="s">
+      <c r="A427" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="75" t="s">
+      <c r="A428" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="75" t="s">
+      <c r="A429" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="75" t="s">
+      <c r="A430" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="75" t="s">
+      <c r="A431" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="75" t="s">
+      <c r="A432" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="75" t="s">
+      <c r="A433" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="75" t="s">
+      <c r="A434" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="75" t="s">
+      <c r="A435" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="75" t="s">
+      <c r="A436" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="75" t="s">
+      <c r="A437" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="75" t="s">
+      <c r="A438" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="75" t="s">
+      <c r="A439" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="75" t="s">
+      <c r="A440" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="75" t="s">
+      <c r="A441" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="75" t="s">
+      <c r="A442" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="75" t="s">
+      <c r="A443" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="75" t="s">
+      <c r="A444" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="75" t="s">
+      <c r="A445" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="75" t="s">
+      <c r="A446" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="75" t="s">
+      <c r="A447" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="75" t="s">
+      <c r="A448" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="75" t="s">
+      <c r="A449" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="75" t="s">
+      <c r="A450" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="75" t="s">
+      <c r="A451" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="75" t="s">
+      <c r="A452" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="75" t="s">
+      <c r="A453" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="75" t="s">
+      <c r="A454" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="75" t="s">
+      <c r="A455" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="75" t="s">
+      <c r="A456" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="75" t="s">
+      <c r="A457" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="75" t="s">
+      <c r="A458" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="75" t="s">
+      <c r="A459" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="75" t="s">
+      <c r="A460" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="75" t="s">
+      <c r="A461" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="75" t="s">
+      <c r="A462" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="75" t="s">
+      <c r="A463" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="75" t="s">
+      <c r="A464" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="75" t="s">
+      <c r="A465" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="75" t="s">
+      <c r="A466" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="75" t="s">
+      <c r="A467" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="75" t="s">
+      <c r="A468" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="75" t="s">
+      <c r="A469" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="75" t="s">
+      <c r="A470" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="75" t="s">
+      <c r="A471" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="75" t="s">
+      <c r="A472" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="75" t="s">
+      <c r="A473" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="75" t="s">
+      <c r="A474" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="75" t="s">
+      <c r="A475" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="75" t="s">
+      <c r="A476" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="75" t="s">
+      <c r="A477" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="75" t="s">
+      <c r="A478" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="75" t="s">
+      <c r="A479" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="75" t="s">
+      <c r="A480" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="75" t="s">
+      <c r="A481" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="75" t="s">
+      <c r="A482" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="75" t="s">
+      <c r="A483" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="75" t="s">
+      <c r="A484" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="75" t="s">
+      <c r="A485" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="75" t="s">
+      <c r="A486" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="75" t="s">
+      <c r="A487" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="75" t="s">
+      <c r="A488" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="75" t="s">
+      <c r="A489" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="75" t="s">
+      <c r="A490" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="75" t="s">
+      <c r="A491" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="75" t="s">
+      <c r="A492" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="75" t="s">
+      <c r="A493" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="75" t="s">
+      <c r="A494" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="75" t="s">
+      <c r="A495" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="75" t="s">
+      <c r="A496" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="75" t="s">
+      <c r="A497" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="75" t="s">
+      <c r="A498" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="75" t="s">
+      <c r="A499" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="75" t="s">
+      <c r="A500" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="75" t="s">
+      <c r="A501" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="75" t="s">
+      <c r="A502" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="75" t="s">
+      <c r="A503" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="75" t="s">
+      <c r="A504" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="75" t="s">
+      <c r="A505" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="75" t="s">
+      <c r="A506" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="75" t="s">
+      <c r="A507" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="75" t="s">
+      <c r="A508" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="75" t="s">
+      <c r="A509" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="75" t="s">
+      <c r="A510" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="75" t="s">
+      <c r="A511" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="75" t="s">
+      <c r="A512" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="75" t="s">
+      <c r="A513" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="75" t="s">
+      <c r="A514" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="75" t="s">
+      <c r="A515" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="75" t="s">
+      <c r="A516" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="75" t="s">
+      <c r="A517" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="75" t="s">
+      <c r="A518" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="75" t="s">
+      <c r="A519" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="75" t="s">
+      <c r="A520" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="75" t="s">
+      <c r="A521" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="75" t="s">
+      <c r="A522" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="75" t="s">
+      <c r="A523" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="75" t="s">
+      <c r="A524" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="75" t="s">
+      <c r="A525" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="75" t="s">
+      <c r="A526" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="75" t="s">
+      <c r="A527" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="75" t="s">
+      <c r="A528" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="75" t="s">
+      <c r="A529" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="75" t="s">
+      <c r="A530" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="75" t="s">
+      <c r="A531" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="75" t="s">
+      <c r="A532" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="75" t="s">
+      <c r="A533" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="75" t="s">
+      <c r="A534" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="75" t="s">
+      <c r="A535" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="75" t="s">
+      <c r="A536" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="75" t="s">
+      <c r="A537" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="75" t="s">
+      <c r="A538" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="75" t="s">
+      <c r="A539" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="75" t="s">
+      <c r="A540" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="75" t="s">
+      <c r="A541" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="75" t="s">
+      <c r="A542" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="75" t="s">
+      <c r="A543" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="75" t="s">
+      <c r="A544" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="75" t="s">
+      <c r="A545" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="75" t="s">
+      <c r="A546" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="75" t="s">
+      <c r="A547" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="75" t="s">
+      <c r="A548" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="75" t="s">
+      <c r="A549" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="75" t="s">
+      <c r="A550" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="75" t="s">
+      <c r="A551" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="75" t="s">
+      <c r="A552" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="75" t="s">
+      <c r="A553" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="75" t="s">
+      <c r="A554" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="75" t="s">
+      <c r="A555" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="75" t="s">
+      <c r="A556" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="75" t="s">
+      <c r="A557" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="75" t="s">
+      <c r="A558" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="75" t="s">
+      <c r="A559" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="75" t="s">
+      <c r="A560" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="75" t="s">
+      <c r="A561" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="75" t="s">
+      <c r="A562" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="75" t="s">
+      <c r="A563" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="75" t="s">
+      <c r="A564" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="75" t="s">
+      <c r="A565" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="75" t="s">
+      <c r="A566" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="75" t="s">
+      <c r="A567" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="75" t="s">
+      <c r="A568" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="75" t="s">
+      <c r="A569" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="75" t="s">
+      <c r="A570" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="75" t="s">
+      <c r="A571" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="75" t="s">
+      <c r="A572" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="75" t="s">
+      <c r="A573" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="75" t="s">
+      <c r="A574" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="75" t="s">
+      <c r="A575" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="75" t="s">
+      <c r="A576" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="75" t="s">
+      <c r="A577" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="75" t="s">
+      <c r="A578" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="75" t="s">
+      <c r="A579" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="75" t="s">
+      <c r="A580" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="75" t="s">
+      <c r="A581" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="75" t="s">
+      <c r="A582" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="75" t="s">
+      <c r="A583" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" s="75" t="s">
+      <c r="A584" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="75" t="s">
+      <c r="A585" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="75" t="s">
+      <c r="A586" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="75" t="s">
+      <c r="A587" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="75" t="s">
+      <c r="A588" s="73" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="75" t="s">
+      <c r="A589" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B589" s="77"/>
+      <c r="B589" s="75"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="75" t="s">
+      <c r="A590" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B590" s="77"/>
+      <c r="B590" s="75"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="75" t="s">
+      <c r="A591" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B591" s="77"/>
+      <c r="B591" s="75"/>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="75" t="s">
+      <c r="A592" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="B592" s="77"/>
+      <c r="B592" s="75"/>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="75" t="s">
+      <c r="A593" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B593" s="77"/>
+      <c r="B593" s="75"/>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="75" t="s">
+      <c r="A594" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B594" s="77"/>
+      <c r="B594" s="75"/>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="75" t="s">
+      <c r="A595" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B595" s="77"/>
+      <c r="B595" s="75"/>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="75" t="s">
+      <c r="A596" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B596" s="77"/>
+      <c r="B596" s="75"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="75" t="s">
+      <c r="A597" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B597" s="77"/>
+      <c r="B597" s="75"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="75" t="s">
+      <c r="A598" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B598" s="77"/>
+      <c r="B598" s="75"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="75" t="s">
+      <c r="A599" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B599" s="77"/>
+      <c r="B599" s="75"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="75" t="s">
+      <c r="A600" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B600" s="77"/>
+      <c r="B600" s="75"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="75" t="s">
+      <c r="A601" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B601" s="77"/>
+      <c r="B601" s="75"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="75" t="s">
+      <c r="A602" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B602" s="77"/>
+      <c r="B602" s="75"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="75" t="s">
+      <c r="A603" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B603" s="77"/>
+      <c r="B603" s="75"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="75" t="s">
+      <c r="A604" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B604" s="77"/>
+      <c r="B604" s="75"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="75" t="s">
+      <c r="A605" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B605" s="77"/>
+      <c r="B605" s="75"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="75" t="s">
+      <c r="A606" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B606" s="77"/>
+      <c r="B606" s="75"/>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="75" t="s">
+      <c r="A607" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B607" s="77"/>
+      <c r="B607" s="75"/>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="75" t="s">
+      <c r="A608" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B608" s="77"/>
+      <c r="B608" s="75"/>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="75" t="s">
+      <c r="A609" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B609" s="77"/>
+      <c r="B609" s="75"/>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="75" t="s">
+      <c r="A610" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B610" s="77"/>
+      <c r="B610" s="75"/>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="75" t="s">
+      <c r="A611" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B611" s="77"/>
+      <c r="B611" s="75"/>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="75" t="s">
+      <c r="A612" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B612" s="77"/>
+      <c r="B612" s="75"/>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="75" t="s">
+      <c r="A613" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B613" s="77"/>
+      <c r="B613" s="75"/>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="75" t="s">
+      <c r="A614" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B614" s="77"/>
+      <c r="B614" s="75"/>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="75" t="s">
+      <c r="A615" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B615" s="77"/>
+      <c r="B615" s="75"/>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="75" t="s">
+      <c r="A616" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B616" s="77"/>
+      <c r="B616" s="75"/>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="75" t="s">
+      <c r="A617" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B617" s="77"/>
+      <c r="B617" s="75"/>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="75" t="s">
+      <c r="A618" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B618" s="77"/>
+      <c r="B618" s="75"/>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="75" t="s">
+      <c r="A619" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B619" s="77"/>
+      <c r="B619" s="75"/>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="75" t="s">
+      <c r="A620" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B620" s="77"/>
+      <c r="B620" s="75"/>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="75" t="s">
+      <c r="A621" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B621" s="77"/>
+      <c r="B621" s="75"/>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="78" t="s">
+      <c r="A622" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B622" s="77"/>
-      <c r="C622" s="78"/>
+      <c r="B622" s="75"/>
+      <c r="C622" s="76"/>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="78" t="s">
+      <c r="A623" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B623" s="77"/>
-      <c r="C623" s="78"/>
+      <c r="B623" s="75"/>
+      <c r="C623" s="76"/>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="78" t="s">
+      <c r="A624" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B624" s="77"/>
-      <c r="C624" s="78"/>
+      <c r="B624" s="75"/>
+      <c r="C624" s="76"/>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="78" t="s">
+      <c r="A625" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B625" s="77"/>
-      <c r="C625" s="78"/>
+      <c r="B625" s="75"/>
+      <c r="C625" s="76"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="78" t="s">
+      <c r="A626" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B626" s="77"/>
-      <c r="C626" s="78"/>
+      <c r="B626" s="75"/>
+      <c r="C626" s="76"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="78" t="s">
+      <c r="A627" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B627" s="77"/>
-      <c r="C627" s="78"/>
+      <c r="B627" s="75"/>
+      <c r="C627" s="76"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="78" t="s">
+      <c r="A628" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B628" s="77"/>
-      <c r="C628" s="78"/>
+      <c r="B628" s="75"/>
+      <c r="C628" s="76"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="78" t="s">
+      <c r="A629" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B629" s="77"/>
-      <c r="C629" s="78"/>
+      <c r="B629" s="75"/>
+      <c r="C629" s="76"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="78" t="s">
+      <c r="A630" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B630" s="77"/>
-      <c r="C630" s="78"/>
+      <c r="B630" s="75"/>
+      <c r="C630" s="76"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="78" t="s">
+      <c r="A631" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B631" s="77"/>
-      <c r="C631" s="78"/>
+      <c r="B631" s="75"/>
+      <c r="C631" s="76"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="78" t="s">
+      <c r="A632" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B632" s="77"/>
-      <c r="C632" s="78"/>
+      <c r="B632" s="75"/>
+      <c r="C632" s="76"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="78" t="s">
+      <c r="A633" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B633" s="77"/>
-      <c r="C633" s="78"/>
+      <c r="B633" s="75"/>
+      <c r="C633" s="76"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="78" t="s">
+      <c r="A634" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B634" s="77"/>
-      <c r="C634" s="78"/>
+      <c r="B634" s="75"/>
+      <c r="C634" s="76"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" s="78" t="s">
+      <c r="A635" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B635" s="77"/>
-      <c r="C635" s="78"/>
+      <c r="B635" s="75"/>
+      <c r="C635" s="76"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" s="78" t="s">
+      <c r="A636" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B636" s="77"/>
-      <c r="C636" s="78"/>
+      <c r="B636" s="75"/>
+      <c r="C636" s="76"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="78" t="s">
+      <c r="A637" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B637" s="77"/>
-      <c r="C637" s="78"/>
+      <c r="B637" s="75"/>
+      <c r="C637" s="76"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" s="78" t="s">
+      <c r="A638" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="B638" s="77"/>
-      <c r="C638" s="78"/>
+      <c r="B638" s="75"/>
+      <c r="C638" s="76"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" s="78" t="s">
+      <c r="A639" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B639" s="79"/>
-      <c r="C639" s="78"/>
+      <c r="B639" s="77"/>
+      <c r="C639" s="76"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" s="78" t="s">
+      <c r="A640" s="76" t="s">
         <v>179</v>
       </c>
-      <c r="B640" s="79"/>
-      <c r="C640" s="78"/>
+      <c r="B640" s="77"/>
+      <c r="C640" s="76"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" s="78" t="s">
+      <c r="A641" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B641" s="77"/>
-      <c r="C641" s="78"/>
+      <c r="B641" s="75"/>
+      <c r="C641" s="76"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" s="78" t="s">
+      <c r="A642" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B642" s="77"/>
-      <c r="C642" s="78"/>
+      <c r="B642" s="75"/>
+      <c r="C642" s="76"/>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A643" s="78" t="s">
+      <c r="A643" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B643" s="77"/>
-      <c r="C643" s="78"/>
+      <c r="B643" s="75"/>
+      <c r="C643" s="76"/>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A644" s="78" t="s">
+      <c r="A644" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B644" s="77"/>
-      <c r="C644" s="78"/>
+      <c r="B644" s="75"/>
+      <c r="C644" s="76"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A645" s="78" t="s">
+      <c r="A645" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B645" s="77"/>
-      <c r="C645" s="78"/>
+      <c r="B645" s="75"/>
+      <c r="C645" s="76"/>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A646" s="78" t="s">
+      <c r="A646" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B646" s="77"/>
-      <c r="C646" s="78"/>
+      <c r="B646" s="75"/>
+      <c r="C646" s="76"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A647" s="78" t="s">
+      <c r="A647" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B647" s="77"/>
-      <c r="C647" s="78"/>
+      <c r="B647" s="75"/>
+      <c r="C647" s="76"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" s="78" t="s">
+      <c r="A648" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B648" s="77"/>
-      <c r="C648" s="78"/>
+      <c r="B648" s="75"/>
+      <c r="C648" s="76"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" s="78" t="s">
+      <c r="A649" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B649" s="77"/>
-      <c r="C649" s="78"/>
+      <c r="B649" s="75"/>
+      <c r="C649" s="76"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A650" s="78" t="s">
+      <c r="A650" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B650" s="77"/>
-      <c r="C650" s="78"/>
+      <c r="B650" s="75"/>
+      <c r="C650" s="76"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A651" s="78" t="s">
+      <c r="A651" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B651" s="77"/>
-      <c r="C651" s="78"/>
+      <c r="B651" s="75"/>
+      <c r="C651" s="76"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A652" s="78" t="s">
+      <c r="A652" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B652" s="77"/>
-      <c r="C652" s="78"/>
+      <c r="B652" s="75"/>
+      <c r="C652" s="76"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A653" s="78" t="s">
+      <c r="A653" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B653" s="77"/>
-      <c r="C653" s="78"/>
+      <c r="B653" s="75"/>
+      <c r="C653" s="76"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A654" s="78" t="s">
+      <c r="A654" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B654" s="77"/>
-      <c r="C654" s="78"/>
+      <c r="B654" s="75"/>
+      <c r="C654" s="76"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A655" s="78" t="s">
+      <c r="A655" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B655" s="77"/>
-      <c r="C655" s="78"/>
+      <c r="B655" s="75"/>
+      <c r="C655" s="76"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A656" s="78" t="s">
+      <c r="A656" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B656" s="77"/>
-      <c r="C656" s="78"/>
+      <c r="B656" s="75"/>
+      <c r="C656" s="76"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A657" s="78" t="s">
+      <c r="A657" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B657" s="77"/>
-      <c r="C657" s="78"/>
+      <c r="B657" s="75"/>
+      <c r="C657" s="76"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A658" s="78" t="s">
+      <c r="A658" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B658" s="77"/>
-      <c r="C658" s="78"/>
+      <c r="B658" s="75"/>
+      <c r="C658" s="76"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A659" s="78" t="s">
+      <c r="A659" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="B659" s="77"/>
-      <c r="C659" s="78"/>
+      <c r="B659" s="75"/>
+      <c r="C659" s="76"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A660" s="78" t="s">
+      <c r="A660" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B660" s="77"/>
-      <c r="C660" s="78"/>
+      <c r="B660" s="75"/>
+      <c r="C660" s="76"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" s="78" t="s">
+      <c r="A661" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B661" s="77"/>
-      <c r="C661" s="78"/>
+      <c r="B661" s="75"/>
+      <c r="C661" s="76"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" s="78" t="s">
+      <c r="A662" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B662" s="77"/>
-      <c r="C662" s="78"/>
+      <c r="B662" s="75"/>
+      <c r="C662" s="76"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" s="78" t="s">
+      <c r="A663" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B663" s="77"/>
-      <c r="C663" s="78"/>
+      <c r="B663" s="75"/>
+      <c r="C663" s="76"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" s="78" t="s">
+      <c r="A664" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B664" s="77"/>
-      <c r="C664" s="78"/>
+      <c r="B664" s="75"/>
+      <c r="C664" s="76"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" s="78" t="s">
+      <c r="A665" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B665" s="77"/>
-      <c r="C665" s="78"/>
+      <c r="B665" s="75"/>
+      <c r="C665" s="76"/>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" s="78" t="s">
+      <c r="A666" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B666" s="77"/>
-      <c r="C666" s="78"/>
+      <c r="B666" s="75"/>
+      <c r="C666" s="76"/>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" s="78" t="s">
+      <c r="A667" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B667" s="77"/>
-      <c r="C667" s="78"/>
+      <c r="B667" s="75"/>
+      <c r="C667" s="76"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" s="78" t="s">
+      <c r="A668" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B668" s="77"/>
-      <c r="C668" s="78"/>
+      <c r="B668" s="75"/>
+      <c r="C668" s="76"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" s="78" t="s">
+      <c r="A669" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B669" s="77"/>
-      <c r="C669" s="78"/>
+      <c r="B669" s="75"/>
+      <c r="C669" s="76"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" s="78" t="s">
+      <c r="A670" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B670" s="77"/>
-      <c r="C670" s="78"/>
+      <c r="B670" s="75"/>
+      <c r="C670" s="76"/>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="78" t="s">
+      <c r="A671" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B671" s="77"/>
-      <c r="C671" s="78"/>
+      <c r="B671" s="75"/>
+      <c r="C671" s="76"/>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" s="78" t="s">
+      <c r="A672" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="B672" s="77"/>
-      <c r="C672" s="78"/>
+      <c r="B672" s="75"/>
+      <c r="C672" s="76"/>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A673" s="78" t="s">
+      <c r="A673" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B673" s="77"/>
-      <c r="C673" s="78"/>
+      <c r="B673" s="75"/>
+      <c r="C673" s="76"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A674" s="78" t="s">
+      <c r="A674" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B674" s="77"/>
-      <c r="C674" s="78"/>
+      <c r="B674" s="75"/>
+      <c r="C674" s="76"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A675" s="78" t="s">
+      <c r="A675" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B675" s="77"/>
-      <c r="C675" s="78"/>
+      <c r="B675" s="75"/>
+      <c r="C675" s="76"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A676" s="78" t="s">
+      <c r="A676" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B676" s="77"/>
-      <c r="C676" s="78"/>
+      <c r="B676" s="75"/>
+      <c r="C676" s="76"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A677" s="78" t="s">
+      <c r="A677" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B677" s="77"/>
-      <c r="C677" s="78"/>
+      <c r="B677" s="75"/>
+      <c r="C677" s="76"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A678" s="78" t="s">
+      <c r="A678" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B678" s="77"/>
-      <c r="C678" s="78"/>
+      <c r="B678" s="75"/>
+      <c r="C678" s="76"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A679" s="78" t="s">
+      <c r="A679" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B679" s="77"/>
-      <c r="C679" s="78"/>
+      <c r="B679" s="75"/>
+      <c r="C679" s="76"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A680" s="78" t="s">
+      <c r="A680" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B680" s="77"/>
-      <c r="C680" s="78"/>
+      <c r="B680" s="75"/>
+      <c r="C680" s="76"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A681" s="78" t="s">
+      <c r="A681" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B681" s="77"/>
-      <c r="C681" s="78"/>
+      <c r="B681" s="75"/>
+      <c r="C681" s="76"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A682" s="78" t="s">
+      <c r="A682" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B682" s="77"/>
-      <c r="C682" s="78"/>
+      <c r="B682" s="75"/>
+      <c r="C682" s="76"/>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A683" s="78" t="s">
+      <c r="A683" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B683" s="77"/>
-      <c r="C683" s="78"/>
+      <c r="B683" s="75"/>
+      <c r="C683" s="76"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A684" s="78" t="s">
+      <c r="A684" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B684" s="77"/>
-      <c r="C684" s="78"/>
+      <c r="B684" s="75"/>
+      <c r="C684" s="76"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A685" s="78" t="s">
+      <c r="A685" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B685" s="77"/>
-      <c r="C685" s="78"/>
+      <c r="B685" s="75"/>
+      <c r="C685" s="76"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A686" s="78" t="s">
+      <c r="A686" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B686" s="77"/>
-      <c r="C686" s="78"/>
+      <c r="B686" s="75"/>
+      <c r="C686" s="76"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A687" s="78" t="s">
+      <c r="A687" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B687" s="77"/>
-      <c r="C687" s="78"/>
+      <c r="B687" s="75"/>
+      <c r="C687" s="76"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A688" s="78" t="s">
+      <c r="A688" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B688" s="77"/>
-      <c r="C688" s="78"/>
+      <c r="B688" s="75"/>
+      <c r="C688" s="76"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A689" s="78" t="s">
+      <c r="A689" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B689" s="77"/>
-      <c r="C689" s="78"/>
+      <c r="B689" s="75"/>
+      <c r="C689" s="76"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A690" s="78" t="s">
+      <c r="A690" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B690" s="77"/>
-      <c r="C690" s="78"/>
+      <c r="B690" s="75"/>
+      <c r="C690" s="76"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A691" s="78" t="s">
+      <c r="A691" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B691" s="77"/>
-      <c r="C691" s="78"/>
+      <c r="B691" s="75"/>
+      <c r="C691" s="76"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A692" s="78" t="s">
+      <c r="A692" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B692" s="77"/>
-      <c r="C692" s="78"/>
+      <c r="B692" s="75"/>
+      <c r="C692" s="76"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A693" s="78" t="s">
+      <c r="A693" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B693" s="77"/>
-      <c r="C693" s="78"/>
+      <c r="B693" s="75"/>
+      <c r="C693" s="76"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A694" s="78" t="s">
+      <c r="A694" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B694" s="77"/>
-      <c r="C694" s="78"/>
+      <c r="B694" s="75"/>
+      <c r="C694" s="76"/>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A695" s="78" t="s">
+      <c r="A695" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B695" s="77"/>
-      <c r="C695" s="78"/>
+      <c r="B695" s="75"/>
+      <c r="C695" s="76"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A696" s="78" t="s">
+      <c r="A696" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B696" s="77"/>
-      <c r="C696" s="78"/>
+      <c r="B696" s="75"/>
+      <c r="C696" s="76"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A697" s="78" t="s">
+      <c r="A697" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B697" s="77"/>
-      <c r="C697" s="78"/>
+      <c r="B697" s="75"/>
+      <c r="C697" s="76"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A698" s="78" t="s">
+      <c r="A698" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B698" s="77"/>
-      <c r="C698" s="78"/>
+      <c r="B698" s="75"/>
+      <c r="C698" s="76"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A699" s="78" t="s">
+      <c r="A699" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="B699" s="77"/>
-      <c r="C699" s="78"/>
+      <c r="B699" s="75"/>
+      <c r="C699" s="76"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A700" s="78" t="s">
+      <c r="A700" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B700" s="77"/>
-      <c r="C700" s="78"/>
+      <c r="B700" s="75"/>
+      <c r="C700" s="76"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A701" s="78" t="s">
+      <c r="A701" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B701" s="77"/>
-      <c r="C701" s="78"/>
+      <c r="B701" s="75"/>
+      <c r="C701" s="76"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A702" s="78" t="s">
+      <c r="A702" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B702" s="77"/>
-      <c r="C702" s="78"/>
+      <c r="B702" s="75"/>
+      <c r="C702" s="76"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A703" s="78" t="s">
+      <c r="A703" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B703" s="77"/>
-      <c r="C703" s="78"/>
+      <c r="B703" s="75"/>
+      <c r="C703" s="76"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A704" s="78" t="s">
+      <c r="A704" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B704" s="77"/>
-      <c r="C704" s="78"/>
+      <c r="B704" s="75"/>
+      <c r="C704" s="76"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A705" s="78" t="s">
+      <c r="A705" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B705" s="77"/>
-      <c r="C705" s="78"/>
+      <c r="B705" s="75"/>
+      <c r="C705" s="76"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A706" s="78" t="s">
+      <c r="A706" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B706" s="77"/>
-      <c r="C706" s="78"/>
+      <c r="B706" s="75"/>
+      <c r="C706" s="76"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A707" s="78" t="s">
+      <c r="A707" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B707" s="77"/>
-      <c r="C707" s="78"/>
+      <c r="B707" s="75"/>
+      <c r="C707" s="76"/>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A708" s="78" t="s">
+      <c r="A708" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B708" s="77"/>
-      <c r="C708" s="78"/>
+      <c r="B708" s="75"/>
+      <c r="C708" s="76"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A709" s="78" t="s">
+      <c r="A709" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B709" s="77"/>
-      <c r="C709" s="78"/>
+      <c r="B709" s="75"/>
+      <c r="C709" s="76"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A710" s="78" t="s">
+      <c r="A710" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B710" s="77"/>
-      <c r="C710" s="78"/>
+      <c r="B710" s="75"/>
+      <c r="C710" s="76"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A711" s="78" t="s">
+      <c r="A711" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B711" s="77"/>
-      <c r="C711" s="78"/>
+      <c r="B711" s="75"/>
+      <c r="C711" s="76"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A712" s="78" t="s">
+      <c r="A712" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B712" s="77"/>
-      <c r="C712" s="78"/>
+      <c r="B712" s="75"/>
+      <c r="C712" s="76"/>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A713" s="78" t="s">
+      <c r="A713" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B713" s="77"/>
-      <c r="C713" s="78"/>
+      <c r="B713" s="75"/>
+      <c r="C713" s="76"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A714" s="78" t="s">
+      <c r="A714" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B714" s="77"/>
-      <c r="C714" s="78"/>
+      <c r="B714" s="75"/>
+      <c r="C714" s="76"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A715" s="78" t="s">
+      <c r="A715" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B715" s="77"/>
-      <c r="C715" s="78"/>
+      <c r="B715" s="75"/>
+      <c r="C715" s="76"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A716" s="78" t="s">
+      <c r="A716" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B716" s="77"/>
-      <c r="C716" s="78"/>
+      <c r="B716" s="75"/>
+      <c r="C716" s="76"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A717" s="78" t="s">
+      <c r="A717" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B717" s="77"/>
-      <c r="C717" s="78"/>
+      <c r="B717" s="75"/>
+      <c r="C717" s="76"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A718" s="78" t="s">
+      <c r="A718" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B718" s="77"/>
-      <c r="C718" s="78"/>
+      <c r="B718" s="75"/>
+      <c r="C718" s="76"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A719" s="78" t="s">
+      <c r="A719" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B719" s="77"/>
-      <c r="C719" s="78"/>
+      <c r="B719" s="75"/>
+      <c r="C719" s="76"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A720" s="78" t="s">
+      <c r="A720" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B720" s="77"/>
-      <c r="C720" s="78"/>
+      <c r="B720" s="75"/>
+      <c r="C720" s="76"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A721" s="78" t="s">
+      <c r="A721" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B721" s="77"/>
-      <c r="C721" s="78"/>
+      <c r="B721" s="75"/>
+      <c r="C721" s="76"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A722" s="78" t="s">
+      <c r="A722" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B722" s="77"/>
-      <c r="C722" s="78"/>
+      <c r="B722" s="75"/>
+      <c r="C722" s="76"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A723" s="78" t="s">
+      <c r="A723" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B723" s="77"/>
-      <c r="C723" s="78"/>
+      <c r="B723" s="75"/>
+      <c r="C723" s="76"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A724" s="78" t="s">
+      <c r="A724" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B724" s="77"/>
-      <c r="C724" s="78"/>
+      <c r="B724" s="75"/>
+      <c r="C724" s="76"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A725" s="78" t="s">
+      <c r="A725" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B725" s="77"/>
-      <c r="C725" s="78"/>
+      <c r="B725" s="75"/>
+      <c r="C725" s="76"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A726" s="78" t="s">
+      <c r="A726" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="B726" s="77"/>
-      <c r="C726" s="78"/>
+      <c r="B726" s="75"/>
+      <c r="C726" s="76"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A727" s="78" t="s">
+      <c r="A727" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B727" s="77"/>
-      <c r="C727" s="78"/>
+      <c r="B727" s="75"/>
+      <c r="C727" s="76"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A728" s="78" t="s">
+      <c r="A728" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B728" s="77"/>
-      <c r="C728" s="78"/>
+      <c r="B728" s="75"/>
+      <c r="C728" s="76"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A729" s="78" t="s">
+      <c r="A729" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B729" s="77"/>
-      <c r="C729" s="78"/>
+      <c r="B729" s="75"/>
+      <c r="C729" s="76"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A730" s="78" t="s">
+      <c r="A730" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B730" s="77"/>
-      <c r="C730" s="78"/>
+      <c r="B730" s="75"/>
+      <c r="C730" s="76"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A731" s="78" t="s">
+      <c r="A731" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B731" s="77"/>
-      <c r="C731" s="78"/>
+      <c r="B731" s="75"/>
+      <c r="C731" s="76"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A732" s="78" t="s">
+      <c r="A732" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B732" s="77"/>
-      <c r="C732" s="78"/>
+      <c r="B732" s="75"/>
+      <c r="C732" s="76"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A733" s="78" t="s">
+      <c r="A733" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B733" s="77"/>
-      <c r="C733" s="78"/>
+      <c r="B733" s="75"/>
+      <c r="C733" s="76"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A734" s="78" t="s">
+      <c r="A734" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B734" s="77"/>
-      <c r="C734" s="78"/>
+      <c r="B734" s="75"/>
+      <c r="C734" s="76"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A735" s="78" t="s">
+      <c r="A735" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B735" s="77"/>
-      <c r="C735" s="78"/>
+      <c r="B735" s="75"/>
+      <c r="C735" s="76"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A736" s="78" t="s">
+      <c r="A736" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B736" s="77"/>
-      <c r="C736" s="78"/>
+      <c r="B736" s="75"/>
+      <c r="C736" s="76"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A737" s="78" t="s">
+      <c r="A737" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B737" s="77"/>
-      <c r="C737" s="78"/>
+      <c r="B737" s="75"/>
+      <c r="C737" s="76"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A738" s="78" t="s">
+      <c r="A738" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B738" s="77"/>
-      <c r="C738" s="78"/>
+      <c r="B738" s="75"/>
+      <c r="C738" s="76"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A739" s="78" t="s">
+      <c r="A739" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B739" s="77"/>
-      <c r="C739" s="78"/>
+      <c r="B739" s="75"/>
+      <c r="C739" s="76"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A740" s="78" t="s">
+      <c r="A740" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B740" s="77"/>
-      <c r="C740" s="78"/>
+      <c r="B740" s="75"/>
+      <c r="C740" s="76"/>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A741" s="78" t="s">
+      <c r="A741" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B741" s="77"/>
-      <c r="C741" s="78"/>
+      <c r="B741" s="75"/>
+      <c r="C741" s="76"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A742" s="78" t="s">
+      <c r="A742" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B742" s="77"/>
-      <c r="C742" s="78"/>
+      <c r="B742" s="75"/>
+      <c r="C742" s="76"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A743" s="78" t="s">
+      <c r="A743" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B743" s="77"/>
-      <c r="C743" s="78"/>
+      <c r="B743" s="75"/>
+      <c r="C743" s="76"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A744" s="78" t="s">
+      <c r="A744" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B744" s="77"/>
-      <c r="C744" s="78"/>
+      <c r="B744" s="75"/>
+      <c r="C744" s="76"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A745" s="78" t="s">
+      <c r="A745" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B745" s="77"/>
-      <c r="C745" s="78"/>
+      <c r="B745" s="75"/>
+      <c r="C745" s="76"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A746" s="78" t="s">
+      <c r="A746" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B746" s="77"/>
-      <c r="C746" s="78"/>
+      <c r="B746" s="75"/>
+      <c r="C746" s="76"/>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A747" s="78" t="s">
+      <c r="A747" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B747" s="77"/>
-      <c r="C747" s="78"/>
+      <c r="B747" s="75"/>
+      <c r="C747" s="76"/>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A748" s="78" t="s">
+      <c r="A748" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B748" s="77"/>
-      <c r="C748" s="78"/>
+      <c r="B748" s="75"/>
+      <c r="C748" s="76"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A749" s="78" t="s">
+      <c r="A749" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B749" s="77"/>
-      <c r="C749" s="78"/>
+      <c r="B749" s="75"/>
+      <c r="C749" s="76"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A750" s="78" t="s">
+      <c r="A750" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B750" s="77"/>
-      <c r="C750" s="78"/>
+      <c r="B750" s="75"/>
+      <c r="C750" s="76"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A751" s="78" t="s">
+      <c r="A751" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B751" s="77"/>
-      <c r="C751" s="78"/>
+      <c r="B751" s="75"/>
+      <c r="C751" s="76"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A752" s="78" t="s">
+      <c r="A752" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B752" s="77"/>
-      <c r="C752" s="78"/>
+      <c r="B752" s="75"/>
+      <c r="C752" s="76"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A753" s="78" t="s">
+      <c r="A753" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B753" s="77"/>
-      <c r="C753" s="78"/>
+      <c r="B753" s="75"/>
+      <c r="C753" s="76"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A754" s="78" t="s">
+      <c r="A754" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B754" s="77"/>
-      <c r="C754" s="78"/>
+      <c r="B754" s="75"/>
+      <c r="C754" s="76"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A755" s="78" t="s">
+      <c r="A755" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B755" s="77"/>
-      <c r="C755" s="78"/>
+      <c r="B755" s="75"/>
+      <c r="C755" s="76"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A756" s="78" t="s">
+      <c r="A756" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B756" s="77"/>
-      <c r="C756" s="78"/>
+      <c r="B756" s="75"/>
+      <c r="C756" s="76"/>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" s="78" t="s">
+      <c r="A757" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B757" s="77"/>
-      <c r="C757" s="78"/>
+      <c r="B757" s="75"/>
+      <c r="C757" s="76"/>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A758" s="78" t="s">
+      <c r="A758" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B758" s="77"/>
-      <c r="C758" s="78"/>
+      <c r="B758" s="75"/>
+      <c r="C758" s="76"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A759" s="78" t="s">
+      <c r="A759" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B759" s="77"/>
-      <c r="C759" s="78"/>
+      <c r="B759" s="75"/>
+      <c r="C759" s="76"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A760" s="78" t="s">
+      <c r="A760" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B760" s="77"/>
-      <c r="C760" s="78"/>
+      <c r="B760" s="75"/>
+      <c r="C760" s="76"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A761" s="78" t="s">
+      <c r="A761" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B761" s="77"/>
-      <c r="C761" s="78"/>
+      <c r="B761" s="75"/>
+      <c r="C761" s="76"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A762" s="78" t="s">
+      <c r="A762" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B762" s="77"/>
-      <c r="C762" s="78"/>
+      <c r="B762" s="75"/>
+      <c r="C762" s="76"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A763" s="78" t="s">
+      <c r="A763" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B763" s="77"/>
-      <c r="C763" s="78"/>
+      <c r="B763" s="75"/>
+      <c r="C763" s="76"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A764" s="78" t="s">
+      <c r="A764" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B764" s="77"/>
-      <c r="C764" s="78"/>
+      <c r="B764" s="75"/>
+      <c r="C764" s="76"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A765" s="78" t="s">
+      <c r="A765" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B765" s="77"/>
-      <c r="C765" s="78"/>
+      <c r="B765" s="75"/>
+      <c r="C765" s="76"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" s="78" t="s">
+      <c r="A766" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B766" s="77"/>
-      <c r="C766" s="78"/>
+      <c r="B766" s="75"/>
+      <c r="C766" s="76"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" s="78" t="s">
+      <c r="A767" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B767" s="77"/>
-      <c r="C767" s="78"/>
+      <c r="B767" s="75"/>
+      <c r="C767" s="76"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A768" s="78" t="s">
+      <c r="A768" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B768" s="77"/>
-      <c r="C768" s="78"/>
+      <c r="B768" s="75"/>
+      <c r="C768" s="76"/>
     </row>
     <row r="769" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A769" s="78" t="s">
+      <c r="A769" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B769" s="77"/>
-      <c r="C769" s="78"/>
+      <c r="B769" s="75"/>
+      <c r="C769" s="76"/>
     </row>
     <row r="770" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A770" s="78" t="s">
+      <c r="A770" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B770" s="77"/>
-      <c r="C770" s="78"/>
+      <c r="B770" s="75"/>
+      <c r="C770" s="76"/>
     </row>
     <row r="771" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A771" s="78" t="s">
+      <c r="A771" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B771" s="77"/>
-      <c r="C771" s="78"/>
+      <c r="B771" s="75"/>
+      <c r="C771" s="76"/>
     </row>
     <row r="772" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A772" s="78" t="s">
+      <c r="A772" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B772" s="77"/>
-      <c r="C772" s="78"/>
+      <c r="B772" s="75"/>
+      <c r="C772" s="76"/>
     </row>
     <row r="773" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A773" s="78" t="s">
+      <c r="A773" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B773" s="77"/>
-      <c r="C773" s="78"/>
+      <c r="B773" s="75"/>
+      <c r="C773" s="76"/>
     </row>
     <row r="774" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A774" s="78" t="s">
+      <c r="A774" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B774" s="77"/>
-      <c r="C774" s="78"/>
+      <c r="B774" s="75"/>
+      <c r="C774" s="76"/>
     </row>
     <row r="775" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A775" s="78" t="s">
+      <c r="A775" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B775" s="77"/>
-      <c r="C775" s="78"/>
+      <c r="B775" s="75"/>
+      <c r="C775" s="76"/>
     </row>
     <row r="776" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A776" s="78" t="s">
+      <c r="A776" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B776" s="77"/>
-      <c r="C776" s="78"/>
+      <c r="B776" s="75"/>
+      <c r="C776" s="76"/>
     </row>
     <row r="777" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A777" s="78" t="s">
+      <c r="A777" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B777" s="77"/>
-      <c r="C777" s="78"/>
+      <c r="B777" s="75"/>
+      <c r="C777" s="76"/>
     </row>
     <row r="778" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A778" s="78" t="s">
+      <c r="A778" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B778" s="77"/>
-      <c r="C778" s="78"/>
+      <c r="B778" s="75"/>
+      <c r="C778" s="76"/>
     </row>
     <row r="779" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A779" s="78" t="s">
+      <c r="A779" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="B779" s="77"/>
-      <c r="C779" s="78"/>
+      <c r="B779" s="75"/>
+      <c r="C779" s="76"/>
     </row>
     <row r="780" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A780" s="78" t="s">
+      <c r="A780" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="B780" s="77"/>
-      <c r="C780" s="78"/>
+      <c r="B780" s="75"/>
+      <c r="C780" s="76"/>
     </row>
     <row r="781" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A781" s="78" t="s">
+      <c r="A781" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="B781" s="77"/>
-      <c r="C781" s="78"/>
-      <c r="K781" s="78"/>
-      <c r="L781" s="77"/>
-      <c r="M781" s="78"/>
+      <c r="B781" s="75"/>
+      <c r="C781" s="76"/>
+      <c r="K781" s="76"/>
+      <c r="L781" s="75"/>
+      <c r="M781" s="76"/>
     </row>
     <row r="782" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A782" s="78" t="s">
+      <c r="A782" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B782" s="77"/>
-      <c r="C782" s="78"/>
-      <c r="K782" s="78"/>
-      <c r="L782" s="77"/>
-      <c r="M782" s="78"/>
+      <c r="B782" s="75"/>
+      <c r="C782" s="76"/>
+      <c r="K782" s="76"/>
+      <c r="L782" s="75"/>
+      <c r="M782" s="76"/>
     </row>
     <row r="783" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A783" s="78" t="s">
+      <c r="A783" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B783" s="77"/>
-      <c r="C783" s="78"/>
-      <c r="K783" s="78"/>
-      <c r="L783" s="77"/>
-      <c r="M783" s="78"/>
+      <c r="B783" s="75"/>
+      <c r="C783" s="76"/>
+      <c r="K783" s="76"/>
+      <c r="L783" s="75"/>
+      <c r="M783" s="76"/>
     </row>
     <row r="784" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A784" s="78" t="s">
+      <c r="A784" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B784" s="77"/>
-      <c r="C784" s="78"/>
-      <c r="K784" s="78"/>
-      <c r="L784" s="77"/>
-      <c r="M784" s="78"/>
+      <c r="B784" s="75"/>
+      <c r="C784" s="76"/>
+      <c r="K784" s="76"/>
+      <c r="L784" s="75"/>
+      <c r="M784" s="76"/>
     </row>
     <row r="785" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A785" s="78" t="s">
+      <c r="A785" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B785" s="77"/>
-      <c r="C785" s="78"/>
-      <c r="K785" s="78"/>
-      <c r="L785" s="77"/>
-      <c r="M785" s="78"/>
+      <c r="B785" s="75"/>
+      <c r="C785" s="76"/>
+      <c r="K785" s="76"/>
+      <c r="L785" s="75"/>
+      <c r="M785" s="76"/>
     </row>
     <row r="786" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A786" s="78" t="s">
+      <c r="A786" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B786" s="77"/>
-      <c r="C786" s="78"/>
-      <c r="K786" s="78"/>
-      <c r="L786" s="77"/>
-      <c r="M786" s="78"/>
+      <c r="B786" s="75"/>
+      <c r="C786" s="76"/>
+      <c r="K786" s="76"/>
+      <c r="L786" s="75"/>
+      <c r="M786" s="76"/>
     </row>
     <row r="787" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A787" s="78" t="s">
+      <c r="A787" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B787" s="77"/>
-      <c r="C787" s="78"/>
-      <c r="K787" s="78"/>
-      <c r="L787" s="77"/>
-      <c r="M787" s="78"/>
+      <c r="B787" s="75"/>
+      <c r="C787" s="76"/>
+      <c r="K787" s="76"/>
+      <c r="L787" s="75"/>
+      <c r="M787" s="76"/>
     </row>
     <row r="788" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A788" s="78" t="s">
+      <c r="A788" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B788" s="77"/>
-      <c r="C788" s="78"/>
-      <c r="K788" s="78"/>
-      <c r="L788" s="77"/>
-      <c r="M788" s="78"/>
+      <c r="B788" s="75"/>
+      <c r="C788" s="76"/>
+      <c r="K788" s="76"/>
+      <c r="L788" s="75"/>
+      <c r="M788" s="76"/>
     </row>
     <row r="789" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A789" s="78" t="s">
+      <c r="A789" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B789" s="77"/>
-      <c r="C789" s="78"/>
-      <c r="K789" s="78"/>
-      <c r="L789" s="77"/>
-      <c r="M789" s="78"/>
+      <c r="B789" s="75"/>
+      <c r="C789" s="76"/>
+      <c r="K789" s="76"/>
+      <c r="L789" s="75"/>
+      <c r="M789" s="76"/>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A790" s="78" t="s">
+      <c r="A790" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B790" s="77"/>
-      <c r="C790" s="78"/>
+      <c r="B790" s="75"/>
+      <c r="C790" s="76"/>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A791" s="78" t="s">
+      <c r="A791" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="B791" s="77"/>
-      <c r="C791" s="78"/>
+      <c r="B791" s="75"/>
+      <c r="C791" s="76"/>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A792" s="75" t="s">
+      <c r="A792" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B792" s="77"/>
-      <c r="C792" s="78"/>
+      <c r="B792" s="75"/>
+      <c r="C792" s="76"/>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A793" s="75" t="s">
+      <c r="A793" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B793" s="77"/>
-      <c r="C793" s="78"/>
+      <c r="B793" s="75"/>
+      <c r="C793" s="76"/>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A794" s="75" t="s">
+      <c r="A794" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B794" s="77"/>
-      <c r="C794" s="78"/>
+      <c r="B794" s="75"/>
+      <c r="C794" s="76"/>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A795" s="75" t="s">
+      <c r="A795" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B795" s="77"/>
-      <c r="C795" s="78"/>
+      <c r="B795" s="75"/>
+      <c r="C795" s="76"/>
     </row>
     <row r="796" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A796" s="75" t="s">
+      <c r="A796" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B796" s="77"/>
-      <c r="C796" s="78"/>
+      <c r="B796" s="75"/>
+      <c r="C796" s="76"/>
     </row>
     <row r="797" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A797" s="75" t="s">
+      <c r="A797" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B797" s="77"/>
-      <c r="C797" s="78"/>
+      <c r="B797" s="75"/>
+      <c r="C797" s="76"/>
     </row>
     <row r="798" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A798" s="75" t="s">
+      <c r="A798" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B798" s="77"/>
-      <c r="C798" s="78"/>
+      <c r="B798" s="75"/>
+      <c r="C798" s="76"/>
     </row>
     <row r="799" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A799" s="78" t="s">
+      <c r="A799" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B799" s="77"/>
-      <c r="C799" s="78"/>
+      <c r="B799" s="75"/>
+      <c r="C799" s="76"/>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A800" s="78" t="s">
+      <c r="A800" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B800" s="77"/>
-      <c r="C800" s="78"/>
+      <c r="B800" s="75"/>
+      <c r="C800" s="76"/>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A801" s="78" t="s">
+      <c r="A801" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B801" s="77"/>
-      <c r="C801" s="78"/>
+      <c r="B801" s="75"/>
+      <c r="C801" s="76"/>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A802" s="78" t="s">
+      <c r="A802" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B802" s="77"/>
-      <c r="C802" s="78"/>
+      <c r="B802" s="75"/>
+      <c r="C802" s="76"/>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A803" s="78" t="s">
+      <c r="A803" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="B803" s="77"/>
-      <c r="C803" s="78"/>
+      <c r="B803" s="75"/>
+      <c r="C803" s="76"/>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A804" s="75" t="s">
+      <c r="A804" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B804" s="77"/>
-      <c r="C804" s="80"/>
+      <c r="B804" s="75"/>
+      <c r="C804" s="78"/>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A805" s="75" t="s">
+      <c r="A805" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B805" s="77"/>
-      <c r="C805" s="78"/>
+      <c r="B805" s="75"/>
+      <c r="C805" s="76"/>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A806" s="75" t="s">
+      <c r="A806" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B806" s="77"/>
-      <c r="C806" s="78"/>
+      <c r="B806" s="75"/>
+      <c r="C806" s="76"/>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A807" s="75" t="s">
+      <c r="A807" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B807" s="77"/>
-      <c r="C807" s="78"/>
+      <c r="B807" s="75"/>
+      <c r="C807" s="76"/>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A808" s="75" t="s">
+      <c r="A808" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B808" s="77"/>
-      <c r="C808" s="78"/>
+      <c r="B808" s="75"/>
+      <c r="C808" s="76"/>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A809" s="75" t="s">
+      <c r="A809" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B809" s="77"/>
-      <c r="C809" s="78"/>
+      <c r="B809" s="75"/>
+      <c r="C809" s="76"/>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A810" s="75" t="s">
+      <c r="A810" s="73" t="s">
         <v>195</v>
       </c>
-      <c r="B810" s="77"/>
-      <c r="C810" s="78"/>
+      <c r="B810" s="75"/>
+      <c r="C810" s="76"/>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A811" s="78" t="s">
+      <c r="A811" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="B811" s="77"/>
-      <c r="C811" s="78"/>
+      <c r="B811" s="75"/>
+      <c r="C811" s="76"/>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A812" s="75" t="s">
+      <c r="A812" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B812" s="77"/>
-      <c r="C812" s="80"/>
+      <c r="B812" s="75"/>
+      <c r="C812" s="78"/>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A813" s="75" t="s">
+      <c r="A813" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B813" s="77"/>
-      <c r="C813" s="78"/>
+      <c r="B813" s="75"/>
+      <c r="C813" s="76"/>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A814" s="75" t="s">
+      <c r="A814" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B814" s="77"/>
-      <c r="C814" s="78"/>
+      <c r="B814" s="75"/>
+      <c r="C814" s="76"/>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A815" s="75" t="s">
+      <c r="A815" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="B815" s="77"/>
-      <c r="C815" s="78"/>
+      <c r="B815" s="75"/>
+      <c r="C815" s="76"/>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A816" s="78" t="s">
+      <c r="A816" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="B816" s="77"/>
-      <c r="C816" s="78"/>
+      <c r="B816" s="75"/>
+      <c r="C816" s="76"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A817" s="78" t="s">
+      <c r="A817" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="B817" s="77"/>
-      <c r="C817" s="78"/>
+      <c r="B817" s="75"/>
+      <c r="C817" s="76"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A818" s="75" t="s">
+      <c r="A818" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="B818" s="77"/>
+      <c r="B818" s="75"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A819" s="75" t="s">
+      <c r="A819" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="B819" s="77"/>
+      <c r="B819" s="75"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A820" s="75" t="s">
+      <c r="A820" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="B820" s="77"/>
+      <c r="B820" s="75"/>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A821" s="75" t="s">
+      <c r="A821" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="B821" s="77"/>
+      <c r="B821" s="75"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="7" t="s">
@@ -9053,84 +9060,84 @@
       <c r="C830" s="3"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A831" s="81" t="s">
+      <c r="A831" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B831" s="49"/>
       <c r="C831" s="3"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A832" s="81" t="s">
+      <c r="A832" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B832" s="49"/>
       <c r="C832" s="6"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A833" s="81" t="s">
+      <c r="A833" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B833" s="49"/>
       <c r="C833" s="3"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A834" s="81" t="s">
+      <c r="A834" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B834" s="49"/>
       <c r="C834" s="3"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A835" s="81" t="s">
+      <c r="A835" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B835" s="49"/>
       <c r="C835" s="3"/>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A836" s="81" t="s">
+      <c r="A836" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B836" s="49"/>
       <c r="C836" s="3"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A837" s="81" t="s">
+      <c r="A837" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B837" s="49"/>
       <c r="C837" s="7"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A838" s="81" t="s">
+      <c r="A838" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B838" s="49"/>
       <c r="C838" s="3"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A839" s="81" t="s">
+      <c r="A839" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B839" s="49"/>
       <c r="C839" s="3"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A840" s="81" t="s">
+      <c r="A840" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B840" s="49"/>
       <c r="C840" s="3"/>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A841" s="81" t="s">
+      <c r="A841" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B841" s="49"/>
       <c r="C841" s="6"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A842" s="81" t="s">
+      <c r="A842" s="79" t="s">
         <v>199</v>
       </c>
       <c r="B842" s="49"/>
@@ -9186,17 +9193,17 @@
       <c r="C849" s="3"/>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A850" s="61" t="s">
+      <c r="A850" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B850" s="62"/>
-      <c r="C850" s="61"/>
+      <c r="B850" s="61"/>
+      <c r="C850" s="60"/>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A851" s="61" t="s">
+      <c r="A851" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="B851" s="62"/>
+      <c r="B851" s="61"/>
       <c r="C851" s="3"/>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.25">
@@ -9245,63 +9252,63 @@
       <c r="A858" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B858" s="62"/>
+      <c r="B858" s="61"/>
       <c r="C858" s="3"/>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B859" s="62"/>
+      <c r="B859" s="61"/>
       <c r="C859" s="3"/>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B860" s="62"/>
+      <c r="B860" s="61"/>
       <c r="C860" s="3"/>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B861" s="62"/>
-      <c r="C861" s="61"/>
+      <c r="B861" s="61"/>
+      <c r="C861" s="60"/>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="B862" s="62"/>
+      <c r="B862" s="61"/>
       <c r="C862" s="3"/>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B863" s="57"/>
+      <c r="B863" s="56"/>
       <c r="C863" s="8"/>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B864" s="57"/>
-      <c r="C864" s="68"/>
+      <c r="B864" s="56"/>
+      <c r="C864" s="66"/>
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B865" s="57"/>
+      <c r="B865" s="56"/>
       <c r="C865" s="8"/>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B866" s="57"/>
+      <c r="B866" s="56"/>
       <c r="C866" s="8"/>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.25">
@@ -9336,259 +9343,259 @@
       <c r="A871" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B871" s="62"/>
+      <c r="B871" s="61"/>
       <c r="C871" s="36"/>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B872" s="62"/>
+      <c r="B872" s="61"/>
       <c r="C872" s="36"/>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="B873" s="62"/>
-      <c r="C873" s="61"/>
+      <c r="B873" s="61"/>
+      <c r="C873" s="60"/>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B874" s="62"/>
+      <c r="B874" s="61"/>
       <c r="C874" s="3"/>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B875" s="62"/>
-      <c r="C875" s="61"/>
+      <c r="B875" s="61"/>
+      <c r="C875" s="60"/>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B876" s="62"/>
+      <c r="B876" s="61"/>
       <c r="C876" s="36"/>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B877" s="62"/>
+      <c r="B877" s="61"/>
       <c r="C877" s="3"/>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B878" s="62"/>
-      <c r="C878" s="61"/>
+      <c r="B878" s="61"/>
+      <c r="C878" s="60"/>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B879" s="62"/>
+      <c r="B879" s="61"/>
       <c r="C879" s="3"/>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B880" s="62"/>
-      <c r="C880" s="61"/>
+      <c r="B880" s="61"/>
+      <c r="C880" s="60"/>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B881" s="62"/>
+      <c r="B881" s="61"/>
       <c r="C881" s="3"/>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B882" s="62"/>
+      <c r="B882" s="61"/>
       <c r="C882" s="3"/>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B883" s="62"/>
+      <c r="B883" s="61"/>
       <c r="C883" s="3"/>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B884" s="62"/>
+      <c r="B884" s="61"/>
       <c r="C884" s="3"/>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B885" s="62"/>
-      <c r="C885" s="61"/>
+      <c r="B885" s="61"/>
+      <c r="C885" s="60"/>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B886" s="62"/>
+      <c r="B886" s="61"/>
       <c r="C886" s="3"/>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B887" s="62"/>
-      <c r="C887" s="61"/>
+      <c r="B887" s="61"/>
+      <c r="C887" s="60"/>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B888" s="62"/>
-      <c r="C888" s="61"/>
+      <c r="B888" s="61"/>
+      <c r="C888" s="60"/>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B889" s="62"/>
-      <c r="C889" s="61"/>
+      <c r="B889" s="61"/>
+      <c r="C889" s="60"/>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B890" s="62"/>
-      <c r="C890" s="61"/>
+      <c r="B890" s="61"/>
+      <c r="C890" s="60"/>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B891" s="62"/>
-      <c r="C891" s="61"/>
+      <c r="B891" s="61"/>
+      <c r="C891" s="60"/>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B892" s="62"/>
-      <c r="C892" s="61"/>
+      <c r="B892" s="61"/>
+      <c r="C892" s="60"/>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B893" s="62"/>
+      <c r="B893" s="61"/>
       <c r="C893" s="3"/>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B894" s="62"/>
-      <c r="C894" s="61"/>
+      <c r="B894" s="61"/>
+      <c r="C894" s="60"/>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B895" s="62"/>
-      <c r="C895" s="61"/>
+      <c r="B895" s="61"/>
+      <c r="C895" s="60"/>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B896" s="62"/>
-      <c r="C896" s="61"/>
+      <c r="B896" s="61"/>
+      <c r="C896" s="60"/>
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B897" s="62"/>
+      <c r="B897" s="61"/>
       <c r="C897" s="3"/>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B898" s="62"/>
+      <c r="B898" s="61"/>
       <c r="C898" s="3"/>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B899" s="62"/>
-      <c r="C899" s="61"/>
+      <c r="B899" s="61"/>
+      <c r="C899" s="60"/>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B900" s="62"/>
-      <c r="C900" s="61"/>
+      <c r="B900" s="61"/>
+      <c r="C900" s="60"/>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B901" s="62"/>
-      <c r="C901" s="61"/>
+      <c r="B901" s="61"/>
+      <c r="C901" s="60"/>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B902" s="62"/>
-      <c r="C902" s="61"/>
+      <c r="B902" s="61"/>
+      <c r="C902" s="60"/>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B903" s="62"/>
-      <c r="C903" s="61"/>
+      <c r="B903" s="61"/>
+      <c r="C903" s="60"/>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B904" s="62"/>
-      <c r="C904" s="61"/>
+      <c r="B904" s="61"/>
+      <c r="C904" s="60"/>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B905" s="62"/>
-      <c r="C905" s="61"/>
+      <c r="B905" s="61"/>
+      <c r="C905" s="60"/>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B906" s="62"/>
-      <c r="C906" s="61"/>
+      <c r="B906" s="61"/>
+      <c r="C906" s="60"/>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B907" s="62"/>
+      <c r="B907" s="61"/>
       <c r="C907" s="3"/>
     </row>
   </sheetData>
@@ -9602,7 +9609,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9610,7 +9617,7 @@
     <col min="1" max="1" width="36.875" style="38" customWidth="1"/>
     <col min="2" max="2" width="36.5" style="38" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="60" style="74" customWidth="1"/>
+    <col min="4" max="4" width="60" style="72" customWidth="1"/>
     <col min="5" max="5" width="49.875" style="38" customWidth="1"/>
     <col min="6" max="16384" width="11" style="38"/>
   </cols>
@@ -9625,7 +9632,7 @@
       <c r="C1" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>173</v>
       </c>
       <c r="E1" s="38" t="s">
@@ -9633,24 +9640,24 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="72">
         <v>2021052713</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="140" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="72"/>
+      <c r="D3" s="70"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="40" t="s">
